--- a/Data/3.TOI_insufficient_data.xlsx
+++ b/Data/3.TOI_insufficient_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,477 +488,477 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HLA-DRB1</t>
+          <t>WNT3A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P01911</t>
+          <t>P56704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1A6A,1AQD,1BX2,1D5M,1D5X,1D5Z,1D6E,1DLH,1FYT,1HXY,1J8H,1JWM,1JWS,1JWU,1KG0,1KLG,1KLU,1LO5,1PYW,1R5I,1SEB,1SJE,1SJH,1T5W,1T5X,1YMM,2FSE,2G9H,2IAM,2IAN,2ICW,2IPK,2OJE,2SEB,2WBJ,2XN9,3L6F,3O6F,3PDO,3PGC,3PGD,3QXA,3QXD,3S4S,3S5L,3T0E,4AEN,4AH2,4C56,4E41,4FQX,4GBX,4I5B,4IS6,4MCY,4MCZ,4MD0,4MD4,4MD5,4MDI,4MDJ,4OV5,4X5W,4X5X,4Y19,4Y1A,5JLZ,5LAX,5NI9,5NIG,6BIJ,6BIL,6BIN,6BIR,6BIV,6BIX,6BIY,6BIZ,6CPL,6CPN,6CPO,6CQJ,6CQL,6CQN,6CQQ,6CQR,6HBY,6NIX,6QZA,6QZC,6QZD,6R0E,6V0Y,6V13,6V15,6V18,6V19,6V1A,8PJG,8TBP,8TRL,8TRQ,8TRR,8VRW</t>
+          <t>7DRT,7URD,7URE,8TZR</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0.465</v>
+        <v>0.471</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4.19 to 8.425</t>
+          <t>4.39 to 8.89</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DCPS</t>
+          <t>NOTCH1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Q96C86</t>
+          <t>P46531</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1ST0,1ST4,1XML,1XMM,3BL7,3BL9,3BLA,4QDE,4QDV,4QEB,5OSY</t>
+          <t>1PB5,1TOZ,1YYH,2F8X,2F8Y,2HE0,2VJ3,3ETO,3I08,3L95,3NBN,3V79,4CUD,4CUE,4CUF,4D0E,4D0F,5FM9,5FMA,5KZO,5L0R,5UB5,6IDF,6PY8,8OR5,8ORY,8ORZ</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>0.643</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.613 to 10.7</t>
+          <t>4.37 to 9.0</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STING1</t>
+          <t>GAA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q86WV6</t>
+          <t>P10253</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4EF4,4EF5,4EMT,4EMU,4F5D,4F5E,4F5W,4F5Y,4F9E,4F9G,4KSY,4LOH,4LOI,4QXO,4QXP,4QXQ,4QXR,5BQX,5JEJ,6CFF,6CY7,6DNK,6DXG,6DXL,6MX0,6MX3,6MXE,6NT5,6O8B,6O8C,6S26,6S27,6S86,6UKM,6UKU,6UKV,6UKW,6UKX,6UKY,6UKZ,6UL0,6XF3,6XF4,6XNP,6Y99,6YDB,6YDZ,6YEA,6YWA,6YWB,6Z0Z,6Z15,7A90,7KVX,7KVZ,7KW1,7MHC,7OB3,7Q3B,7Q85,7R4H,7SHO,7SHP,7SII,7SSM,7T9U,7T9V,7X9P,7X9Q,7ZKU,7ZV0,7ZVK,7ZWL,7ZXB,8A2H,8A2I,8A2J,8A2K,8A2X,8B2J,8FLK,8FLM,8GJX,8GSZ,8GT6,8IK3,8ORW,8P45,8STH,8STI,8T5K,8T5L</t>
+          <t>5KZW,5KZX,5NN3,5NN4,5NN5,5NN6,5NN8,7P2Z,7P32</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>0.357</v>
+        <v>0.243</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.863 to 9.0</t>
+          <t>4.09 to 8.21</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELAVL1</t>
+          <t>DCPS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Q15717</t>
+          <t>Q96C86</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3HI9,4ED5,4EGL,4FXV,5SZW,6G2K,6GC5,6GD1,6GD2,6GD3</t>
+          <t>1ST0,1ST4,1XML,1XMM,3BL7,3BL9,3BLA,4QDE,4QDV,4QEB,5OSY</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>4.62 to 10.7</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4.011 to 9.064</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGER</t>
+          <t>HSF1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Q15109</t>
+          <t>Q00613</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2E5E,2ENS,2L7U,2LE9,2LMB,2M1K,2MJW,2MOV,3CJJ,3O3U,4LP4,4LP5,4OF5,4OFV,4OI7,4OI8,4P2Y,4XYN,4YBH,5D7F,6VXG,6XQ1,6XQ3,6XQ5,6XQ6,6XQ7,6XQ8,6XQ9,7LML,7LMW,8I9M</t>
+          <t>2LDU,5D5U,5D5V,5HDG,5HDN,7DCJ,7DCS,7DCT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.514</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.72 to 9.52</t>
+          <t>4.75 to 8.15</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HSF1</t>
+          <t>ICAM1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Q00613</t>
+          <t>P05362</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2LDU,5D5U,5D5V,5HDG,5HDN,7DCJ,7DCS,7DCT</t>
+          <t>1D3E,1D3I,1D3L,1IAM,1IC1,1MQ8,1P53,1Z7Z,2OZ4,3TCX,5MZA,6EIT,6S8U,7BG7</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>0.486</v>
+        <v>0.629</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4.301 to 8.15</t>
+          <t>5.23 to 8.53</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PBRM1</t>
+          <t>MGMT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Q86U86</t>
+          <t>P16455</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2KTB,3G0J,3HMF,3IU5,3IU6,3K2J,3LJW,3MB4,3TLP,4Q0N,4Q0O,4Y03,5E7D,5FH6,5FH7,5FH8,5HRV,5HRW,5HRX,5II1,5II2,5IID,6OXB,6ZN6,6ZNV,6ZS3,6ZS4,7VDV,7Y8R,8FTA</t>
+          <t>1EH6,1EH7,1EH8,1QNT,1T38,1T39,1YFH,8RGG,8RGH,8RTY,8RU2</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>0.243</v>
+        <v>0.394</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.0 to 9.0</t>
+          <t>4.6 to 8.285</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KAT2A</t>
+          <t>PCSK9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Q92830</t>
+          <t>Q8NBP7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1F68,1Z4R,3D7C,5H84,5H86,5MLJ,5TRL,5TRM,6J3P,8E6O,8H65,8H66,8H6C,8H6D</t>
+          <t>2P4E,2PMW,2QTW,2W2M,2W2N,2W2O,2W2P,2W2Q,2XTJ,3BPS,3GCW,3GCX,3H42,3M0C,3P5B,3P5C,3SQO,4K8R,4NE9,4NMX,4OV6,5OCA,5VL7,5VLA,5VLH,5VLK,5VLL,5VLP,6E4Y,6E4Z,6MV5,6OLZ,6OM0,6OM7,6U26,6U2F,6U2N,6U2P,6U36,6U38,6U3I,6U3X,7ANQ</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>0.171</v>
+        <v>0.182</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.679 to 9.0</t>
+          <t>4.38 to 7.62</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HCN1</t>
+          <t>CXCL12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O60741</t>
+          <t>P48061</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5U6O,5U6P,6UQF,6UQG,8T4M,8T4Y,8T50,8UC7,8UC8,9BC6,9BC7</t>
+          <t>1A15,1QG7,1SDF,1VMC,2J7Z,2K01,2K03,2K04,2K05,2KEC,2KED,2KEE,2KOL,2N55,2NWG,2SDF,3GV3,3HP3,4LMQ,4UAI,6SHR,7SK3,7SK4,7SK5,7SK6,7SK7,7SK8,8K3Z,8U4O</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>0.257</v>
+        <v>0.394</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.7 to 7.8</t>
+          <t>4.1 to 7.6</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BIRC5</t>
+          <t>CXCL8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O15392</t>
+          <t>P10145</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1E31,1F3H,1XOX,2QFA,2RAW,2RAX,3UEC,3UED,3UEE,3UEF,3UEG,3UEH,3UEI,3UIG,3UIH,3UII,3UIJ,3UIK,4A0I,4A0J,4A0N,6SHO,6YIE,6YIF,6YIH,7LBK,7LBO,7LBP,7LBQ</t>
+          <t>1ICW,1IKL,1IKM,1IL8,1ILP,1ILQ,1QE6,1ROD,2IL8,3IL8,4XDX,5D14,5WDZ,6LFM,6LFO,6N2U,6WZM,6XMN,8IC0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>0.314</v>
+        <v>0.452</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.886 to 7.47</t>
+          <t>4.3 to 8.1</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LHCGR</t>
+          <t>BIRC5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P22888</t>
+          <t>O15392</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7FIG,7FIH,7FII,7FIJ</t>
+          <t>1E31,1F3H,1XOX,2QFA,2RAW,2RAX,3UEC,3UED,3UEE,3UEF,3UEG,3UEH,3UEI,3UIG,3UIH,3UII,3UIJ,3UIK,4A0I,4A0J,4A0N,6SHO,6YIE,6YIF,6YIH,7LBK,7LBO,7LBP,7LBQ</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>0.324</v>
+        <v>0.355</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.783 to 7.09</t>
+          <t>4.12 to 7.47</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GPBAR1</t>
+          <t>TRPC3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Q8TDU6</t>
+          <t>Q13507</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7BW0,7CFM,7CFN,7XTQ</t>
+          <t>5ZBG,6CUD,6D7L,6DJS,7DXB,7DXC,7DXD,7DXE</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" t="n">
-        <v>0.265</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.96 to 7.36</t>
+          <t>4.52 to 7.5</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -968,117 +968,117 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MBTPS1</t>
+          <t>UCHL1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Q14703</t>
+          <t>P09936</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8UW8,8UWC</t>
+          <t>2ETL,2LEN,3IFW,3IRT,3KVF,3KW5,4DM9,4JKJ,7ZM0,8DY8,8EDE,8PW1,8XI7</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>0.29</v>
+        <v>0.033</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.577 to 8.1</t>
+          <t>4.04 to 6.64</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CCL5</t>
+          <t>HCN1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P13501</t>
+          <t>O60741</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1B3A,1EQT,1HRJ,1RTN,1RTO,1U4L,1U4M,1U4P,1U4R,2L9H,2VXW,5CMD,5COY,5DNF,5L2U,5UIW,6AEZ,6C6D,6FGP,6LOG,6STK,7F1R,7O7F</t>
+          <t>5U6O,5U6P,6UQF,6UQG,8T4M,8T4Y,8T50,8UC7,8UC8,9BC6,9BC7</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9</v>
+        <v>0.31</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.301 to 7.77</t>
+          <t>4.0 to 7.8</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SLC7A11</t>
+          <t>LHCGR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Q9UPY5</t>
+          <t>P22888</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7CCS,7EPZ,7P9U,7P9V</t>
+          <t>7FIG,7FIH,7FII,7FIJ</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>0.379</v>
+        <v>0.393</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.038 to 8.4</t>
+          <t>5.13 to 7.09</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1088,77 +1088,77 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOD1</t>
+          <t>BAX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P00441</t>
+          <t>Q07812</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1AZV,1BA9,1DSW,1FUN,1HL4,1HL5,1KMG,1L3N,1MFM,1N18,1N19,1OEZ,1OZT,1OZU,1P1V,1PTZ,1PU0,1RK7,1SOS,1SPD,1UXL,1UXM,2AF2,2C9S,2C9U,2C9V,2GBT,2GBU,2GBV,2LU5,2MP3,2NAM,2NNX,2R27,2V0A,2VR6,2VR7,2VR8,2WKO,2WYT,2WYZ,2WZ0,2WZ5,2WZ6,2XJK,2XJL,2ZKW,2ZKX,2ZKY,3CQP,3CQQ,3ECU,3ECV,3ECW,3GQF,3GTV,3GZO,3GZP,3GZQ,3H2P,3H2Q,3HFF,3K91,3KH3,3KH4,3LTV,3QQD,3RE0,3T5W,4A7G,4A7Q,4A7S,4A7T,4A7U,4A7V,4B3E,4BCY,4BCZ,4BD4,4FF9,4MCM,4MCN,4NIN,4NIO,4NIP,4OH2,4XCR,5DLI,5IIW,5J07,5J0C,5J0F,5J0G,5K02,5O3Y,5O40,5U9M,5WMJ,5WOR,5YTO,5YTU,5YUL,6A9O,6B79,6DTK,6FFK,6FLH,6FOI,6FOL,6FON,6FP6,6SPA,6SPH,6SPI,6SPJ,6SPK,6Z3V,6Z4G,6Z4H,6Z4I,6Z4J,6Z4K,6Z4L,6Z4M,6Z4O,7CJV,7CJW,7FB6,7FB9,7NXX,7T8E,7T8F,7T8G,7T8H,7VZF,7XX3,8CCX,8GSQ,8K33,8K3A,8K3L,8Q6M,8YD3,9IYK</t>
+          <t>1F16,2G5B,2K7W,2LR1,3PK1,3PL7,4BD2,4BD6,4BD7,4BD8,4BDU,4S0O,4S0P,4UF2,4ZIE,4ZIF,4ZIG,4ZIH,4ZII,5W5X,5W5Z,5W60,5W61,6EB6,6L8V,6L95,6TRR,6XY6,7ADT,8G1T,8SPE,8SPF,8SPZ,8SRX,8SRY,8SVK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.148</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.104 to 4.33</t>
+          <t>4.07 to 7.37</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SLC22A3</t>
+          <t>GSR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O75751</t>
+          <t>P00390</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7ZH0,7ZH6,7ZHA</t>
+          <t>1ALG,1BWC,1DNC,1GRA,1GRB,1GRE,1GRF,1GRG,1GRH,1GRT,1GSN,1K4Q,1XAN,2AAQ,2GH5,2GRT,3DJG,3DJJ,3DK4,3DK8,3DK9,3GRS,3GRT,3SQP,4GR1,4GRT,5GRT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>0.172</v>
+        <v>0.074</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.132 to 7.82</t>
+          <t>4.06 to 8.39</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1168,37 +1168,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PSMD1</t>
+          <t>GPBAR1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Q99460</t>
+          <t>Q8TDU6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5GJQ,5GJR,5L4K,5LN3,5M32,5T0C,5T0G,5T0H,5T0I,5T0J,5V1Y,5V1Z,5VFP,5VFQ,5VFR,5VFS,5VFT,5VFU,5VGZ,5VHF,5VHH,5VHI,5VHS,6CO4,6MSB,6MSD,6MSE,6MSG,6MSH,6MSJ,6MSK,6OI4,6UYI,6UYJ,6WJD,6WJN,7QXN,7QXP,7QXU,7QXW,7QXX,7QY7,7QYA,7QYB,7W37,7W38,7W39,7W3A,7W3B,7W3C,7W3F,7W3G,7W3H,7W3I,7W3J,7W3K,7W3M,8CVT</t>
+          <t>7BW0,7CFM,7CFN,7XTQ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>0.607</v>
+        <v>0.333</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.808 to 8.24</t>
+          <t>4.96 to 7.36</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1208,157 +1208,157 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EIF2S1</t>
+          <t>SETD2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P05198</t>
+          <t>Q9BYW2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1KL9,1Q8K,6K71,6K72,6O81,6O85,6O9Z,6YBV,6ZMW,6ZP4,7A09,7D43,7D44,7D45,7F66,7F67,7NZM,7QP6,7QP7,7SYR,7SYS,8OZ0,8PJ1,8PJ2,8PJ3,8PJ4,8PPL,8QZZ</t>
+          <t>2A7O,2MDC,2MDI,2MDJ,4FMU,4H12,5JJY,5JLB,5JLE,5LSS,5LSX,5LSY,5LSZ,5LT6,5LT7,5LT8,5V21,5V22,6J9J,6VDB,7EA8,7EVR,7EVS,7LZB,7LZD,7LZF,7TY2,7TY3,8Q5P</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.607</v>
+        <v>0.741</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5.0 to 8.05</t>
+          <t>4.4 to 8.175</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TLR2</t>
+          <t>EIF2S1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O60603</t>
+          <t>P05198</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1FYW,1FYX,1O77,2Z7X,2Z80,6NIG,8AR0</t>
+          <t>1KL9,1Q8K,6K71,6K72,6O81,6O85,6O9Z,6YBV,6ZMW,6ZP4,7A09,7D43,7D44,7D45,7F66,7F67,7NZM,7QP6,7QP7,7SYR,7SYS,8OZ0,8PJ1,8PJ2,8PJ3,8PJ4,8PPL,8QZZ</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>26</v>
       </c>
       <c r="F21" t="n">
+        <v>17</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5.12 to 8.05</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>22</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>4.398 to 7.32</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>COPS5</t>
+          <t>IL15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Q92905</t>
+          <t>P40933</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4D10,4D18,4F7O,4WSN,5JOG,5JOH,5M5Q,6R6H,6R7F,6R7H,6R7I,8H38,8H3A,8H3F</t>
+          <t>2XQB,2Z3Q,2Z3R,4GS7</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
         <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.0 to 8.24</t>
+          <t>4.11 to 6.38</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LDLR</t>
+          <t>SLC5A7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P01130</t>
+          <t>Q9GZV3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1AJJ,1D2J,1F5Y,1F8Z,1HJ7,1HZ8,1I0U,1IJQ,1LDL,1LDR,1N7D,1XFE,2FCW,2KRI,2LGP,2M7P,2MG9,2W2M,2W2N,2W2O,2W2P,2W2Q,3BPS,3GCW,3GCX,3M0C,3P5B,3P5C,3SO6,4NE9,5OY9,5OYL</t>
+          <t>8J74,8J75,8J76,8J77</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.4 to 6.37</t>
+          <t>5.345 to 7.045</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1368,397 +1368,397 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CD4</t>
+          <t>BMI1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P01730</t>
+          <t>P35226</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1CDH,1CDI,1CDJ,1CDU,1CDY,1G9M,1G9N,1GC1,1JL4,1Q68,1RZJ,1RZK,1WBR,1WIO,1WIP,1WIQ,2B4C,2JKR,2JKT,2KLU,2NXY,2NXZ,2NY0,2NY1,2NY2,2NY3,2NY4,2NY5,2NY6,2QAD,3B71,3CD4,3J70,3JCB,3JCC,3JWD,3JWO,3LQA,3O2D,3S4S,3S5L,3T0E,4H8W,4JM2,4P9H,4Q6I,4R2G,4R4H,4RQS,5A7X,5A8H,5CAY,5THR,5U1F,5VN3,6CM3,6EDU,6L1Y,6MEO,6MET,6OPN,6OPO,6OPP,6OPQ,6QH6,6QH7,6U0L,6U0N,6URI,6X5B,6X5C,7T0O,7T0R,7TXD,8D5C,8FYI,8FYJ,8W90</t>
+          <t>2H0D,2NA1,3RPG,4R8P,5FR6,6WI7,6WI8,7ND1,8GRM,8PP7</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.21 to 6.89</t>
+          <t>9.0 to 9.0</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAK1</t>
+          <t>MDH2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Q16611</t>
+          <t>P40926</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1BXL,2IMS,2IMT,2JBY,2JCN,2LP8,2M5B,2XPX,2YV6,3I1H,3QBR,4D2L,4U2U,4U2V,4UF1,5AJK,5FMI,5FMK,5VWV,5VWW,5VWX,5VWY,5VWZ,5VX0,5VX1,6ODH,6UXM,6UXN,6UXO,6UXP,6UXQ,6UXR,7K02,7LK4,7M5A,7M5B,7OFM,7OFO,8CZF,8CZG,8CZH,8GSV,8IGC,8IVB,8SRX,8SRY,8UKY</t>
+          <t>2DFD,4WLE,4WLF,4WLN,4WLO,4WLU,4WLV</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4.13 to 6.7</t>
+          <t>4.36 to 5.995</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CYP2R1</t>
+          <t>KMT2A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Q6VVX0</t>
+          <t>Q03164</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3C6G,3CZH,3DL9</t>
+          <t>2AGH,2J2S,2JYI,2KKF,2KU7,2KYU,2LXS,2LXT,2MSR,2MTN,2W5Y,2W5Z,3EG6,3EMH,3LQH,3LQI,3LQJ,3P4F,3U85,3U88,4ESG,4GQ6,4NW3,5F5E,5F6L,5SVH,6EMQ,6KIU,6KIV,6KIX,6KIZ,6PWV,6PWW,6U9K,6U9M,6U9N,6U9R,6W5I,6W5M,6W5N,7MBM,7MBN,7RZD,7RZJ,7S79,7S7D,7S8A,7S8E,7S8F,7U5V,7W67,7W6A,7W6I,7W6J,7ZEY,7ZEZ</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.301 to 5.0</t>
+          <t>4.12 to 8.62</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KAT8</t>
+          <t>HEXB</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Q9H7Z6</t>
+          <t>P07686</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2GIV,2PQ8,2Y0M,3QAH,3TOA,3TOB,4DNC,5H43,5J8C,5J8F,5WCI,6BA2,6BA4,6CT2,6OIN,6OIO,6OIP,6OIQ,6OIR,6OWH,6OWI,6PD8,6PD9,6PDA,6PDB,6PDC,6PDD,6PDE,6PDF,6PDG,7CMR</t>
+          <t>1NOU,1NOW,1NP0,1O7A,2GJX,2GK1,3LMY,5BRO</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.027 to 5.22</t>
+          <t>4.25 to 7.16</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>PRKAG1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Q07812</t>
+          <t>P54619</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1F16,2G5B,2K7W,2LR1,3PK1,3PL7,4BD2,4BD6,4BD7,4BD8,4BDU,4S0O,4S0P,4UF2,4ZIE,4ZIF,4ZIG,4ZIH,4ZII,5W5X,5W5Z,5W60,5W61,6EB6,6L8V,6L95,6TRR,6XY6,7ADT,8G1T,8SPE,8SPF,8SPZ,8SRX,8SRY,8SVK</t>
+          <t>2UV4,2UV5,2UV6,2UV7,4CFE,4CFF,4RER,4REW,4ZHX,5EZV,5ISO,6B1U,6B2E,6C9F,6C9G,6C9H,6C9J,7JHG,7JHH,7JIJ,7M74,7MYJ,8BIK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
         <v>20</v>
       </c>
       <c r="H28" t="n">
-        <v>0.091</v>
+        <v>0.167</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.614 to 7.37</t>
+          <t>4.99 to 8.22</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>POLG</t>
+          <t>IL17A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P54098</t>
+          <t>Q16552</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3IKM,4ZTU,4ZTZ,5C51,5C52,5C53,8D33,8D37,8D3R,8D42,8G5I,8G5J,8G5K,8G5L,8G5M,8G5N,8G5O,8G5P,8T7E,8UDK,8UDL,8V54,8V55,8V5D,8V5R</t>
+          <t>2VXS,4HR9,4HSA,4QHU,5HHV,5HHX,5HI3,5HI4,5HI5,5N7W,5N92,5NAN,5VB9,6WIO,6WIR,7AMA,7AMG,7UWM,7UWN,7WKX,7Z2M,7ZAN,8B7W,8CDG,8DY1,8DY5,8DYF,8DYG,8DYH,8DYI,8USR,8USS</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
+        <v>24</v>
+      </c>
+      <c r="F29" t="n">
         <v>21</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.165 to 6.3</t>
+          <t>4.29 to 9.0</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IL1RN</t>
+          <t>PIK3C2A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P18510</t>
+          <t>O00443</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1ILR,1ILT,1IRA,1IRP,2IRT</t>
+          <t>2AR5,2IWL,2REA,2RED,6BTY,6BTZ,6BU0,6BUB</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H30" t="n">
-        <v>0.286</v>
+        <v>0.261</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.6 to 8.7</t>
+          <t>4.57 to 8.02</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LONP1</t>
+          <t>SELE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P36776</t>
+          <t>P16581</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2X36,6WYS,6WZV,6X1M,6X27,7KRZ,7KSL,7KSM,7NFY,7NG4,7NG5,7NGC,7NGF,7NGL,7NGP,7NGQ,7OXO,7P09,7P0B,7P0M,8OJL,8OKA,8OM7,8OVF,8OVG,9CC0,9CC3</t>
+          <t>1ESL,1G1T,4C16,4CSY,6EYI,6EYJ,6EYK</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H31" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.21 to 7.77</t>
+          <t>4.0 to 6.1</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MTR</t>
+          <t>GLB1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Q99707</t>
+          <t>P16278</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2O2K,4CCZ</t>
+          <t>3THC,3THD,3WEZ,3WF0,3WF1,3WF2,3WF3,3WF4</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.0 to 5.84</t>
+          <t>4.07 to 9.4</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PADI2</t>
+          <t>AHR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Q9Y2J8</t>
+          <t>P35869</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4N20,4N22,4N24,4N25,4N26,4N28,4N2A,4N2B,4N2C,4N2D,4N2E,4N2F,4N2G,4N2H,4N2I,4N2K,4N2L,4N2M,4N2N</t>
+          <t>5NJ8,7ZUB,8QMO</t>
         </is>
       </c>
       <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+      <c r="F33" t="n">
         <v>19</v>
       </c>
-      <c r="E33" t="n">
-        <v>21</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>0.048</v>
+        <v>0.864</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.815 to 6.7</t>
+          <t>4.67 to 10.15</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -1768,237 +1768,237 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ATAD2B</t>
+          <t>VEGFA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Q9ULI0</t>
+          <t>P15692</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2DKW,3LXJ,6VEO,8SDX,8UHL,8UK5</t>
+          <t>1BJ1,1CZ8,1FLT,1KAT,1KMX,1MJV,1MKG,1MKK,1QTY,1TZH,1TZI,1VGH,1VPF,1VPP,2FJG,2FJH,2QR0,2VGH,2VPF,3BDY,3P9W,3QTK,3S1B,3S1K,3V2A,4DEQ,4GLN,4GLS,4KZN,4QAF,4WPB,4ZFF,5DN2,5FV1,5FV2,5HHC,5HHD,5O4E,5T89,6BFT,6D3O,6T9D,6V7K,6Z13,6Z3F,6ZBR,6ZCD,6ZFL,7KEZ,7KF0,7KF1,7LL8,7LL9</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4.0 to 9.0</t>
+          <t>4.11 to 7.8</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WNK1</t>
+          <t>KAT8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Q9H4A3</t>
+          <t>Q9H7Z6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4PWN,5TF9,5WDY,5WE8,6FBK</t>
+          <t>2GIV,2PQ8,2Y0M,3QAH,3TOA,3TOB,4DNC,5H43,5J8C,5J8F,5WCI,6BA2,6BA4,6CT2,6OIN,6OIO,6OIP,6OIQ,6OIR,6OWH,6OWI,6PD8,6PD9,6PDA,6PDB,6PDC,6PDD,6PDE,6PDF,6PDG,7CMR</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H35" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4.8 to 8.31</t>
+          <t>4.1 to 5.22</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AOC1</t>
+          <t>HK1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P19801</t>
+          <t>P19367</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3HI7,3HIG,3HII,3K5T,3MPH</t>
+          <t>1CZA,1DGK,1HKB,1HKC,1QHA,4F9O,4FOE,4FOI,4FPA,4FPB</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1</v>
+        <v>0.476</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4.0 to 7.89</t>
+          <t>4.2 to 8.1</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HSPA9</t>
+          <t>SLC7A11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P38646</t>
+          <t>Q9UPY5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3N8E,4KBO,6NHK,6P2U,6PMT</t>
+          <t>7CCS,7EPZ,7P9U,7P9V</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5.27 to 6.52</t>
+          <t>4.12 to 8.4</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>PRKAB1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P35520</t>
+          <t>Q9Y478</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1JBQ,1M54,4COO,4L0D,4L27,4L28,4L3V,4PCU,4UUU,5MMS,7QGT,8S5H,8S5I,8S5J,8S5K,8S5L,8S5M,8STW</t>
+          <t>4CFE,4CFF,4ZHX,5EZV,5ISO,6B1U,6C9F,6C9G,6C9H,6C9J,7MYJ,8BIK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.728 to 5.23</t>
+          <t>4.6 to 7.4</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GZMB</t>
+          <t>NOTCH3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P10144</t>
+          <t>Q9UM47</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1FQ3,1IAU</t>
+          <t>4ZLP,5CZV,5CZX,6WQU,6XSW,8OS0</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
       </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5.64 to 8.15</t>
+          <t>5.65 to 9.0</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2008,37 +2008,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ADAM8</t>
+          <t>ELAVL1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P78325</t>
+          <t>Q15717</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4DD8</t>
+          <t>3HI9,4ED5,4EGL,4FXV,5SZW,6G2K,6GC5,6GD1,6GD2,6GD3</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>0.316</v>
+        <v>0.4</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5.0 to 6.85</t>
+          <t>4.16 to 7.82</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2048,317 +2048,317 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>HSPA9</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P10599</t>
+          <t>P38646</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1AIU,1AUC,1CQG,1CQH,1ERT,1ERU,1ERV,1ERW,1M7T,1MDI,1MDJ,1MDK,1TRS,1TRU,1TRV,1TRW,2HSH,2HXK,2IFQ,2IIY,3E3E,3KD0,3M9J,3M9K,3QFA,3QFB,3TRX,4LL1,4LL4,4OO4,4OO5,4POK,4POL,4POM,4PUF,4TRX,5DQY</t>
+          <t>3N8E,4KBO,6NHK,6P2U,6PMT</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
+        <v>20</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
         <v>19</v>
       </c>
-      <c r="F41" t="n">
-        <v>4</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
       <c r="H41" t="n">
-        <v>0.211</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.523 to 7.05</t>
+          <t>5.27 to 6.52</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>STAT5A</t>
+          <t>CHRNA3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P42229</t>
+          <t>P32297</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7TVA,7TVB,7UBT,7UC6,7UC7</t>
+          <t>4ZK4,5SYO,5TVC,6PV7,6PV8</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>0.105</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4.33 to 8.3</t>
+          <t>4.85 to 7.85</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IL6</t>
+          <t>MBTPS1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P05231</t>
+          <t>Q14703</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1ALU,1IL6,1P9M,2IL6,4CNI,4J4L,4NI7,4NI9,4O9H,4ZS7,5FUC,7NXZ,8D82,8QY5,8QY6</t>
+          <t>8UW8,8UWC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H43" t="n">
-        <v>0.778</v>
+        <v>0.45</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4.69 to 8.96</t>
+          <t>4.12 to 8.1</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AHR</t>
+          <t>STAT5A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P35869</t>
+          <t>P42229</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5NJ8,7ZUB,8QMO</t>
+          <t>7TVA,7TVB,7UBT,7UC6,7UC7</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
+        <v>20</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
         <v>18</v>
       </c>
-      <c r="F44" t="n">
-        <v>8</v>
-      </c>
-      <c r="G44" t="n">
-        <v>10</v>
-      </c>
       <c r="H44" t="n">
-        <v>0.444</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4.523 to 9.89</t>
+          <t>4.29 to 8.3</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DNMT3A</t>
+          <t>COPS5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Q9Y6K1</t>
+          <t>Q92905</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2QRV,3A1A,3A1B,3LLR,3SVM,4QBQ,4QBR,4QBS,4U7P,4U7T,5YX2,6BRR,6F57,6PA7,6W89,6W8B,6W8D,6W8J,8BA5,8TDR,8TE1,8TE3,8TE4,8U5H</t>
+          <t>4D10,4D18,4F7O,4WSN,5JOG,5JOH,5M5Q,6R6H,6R7F,6R7H,6R7I,8H38,8H3A,8H3F</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.502 to 6.3</t>
+          <t>4.17 to 8.24</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>USP14</t>
+          <t>PARK7</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P54578</t>
+          <t>Q99497</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2AYN,2AYO,5GJQ,6IIK,6IIL,6IIM,6IIN,6LVS,7W37,7W38,7W39,7W3A,7W3B,7W3C,7W3F,7W3G,7W3H,7W3I,7W3J,7W3K,7W3M</t>
+          <t>1J42,1P5F,1PDV,1PDW,1PE0,1Q2U,1SOA,1UCF,2OR3,2R1T,2R1U,2R1V,2RK3,2RK4,2RK6,3B36,3B38,3B3A,3BWE,3CY6,3CYF,3CZ9,3CZA,3EZG,3F71,3SF8,4BTE,4MNT,4MTC,4N0M,4N12,4OGF,4OQ4,4P2G,4P34,4P35,4P36,4RKW,4RKY,4S0Z,4ZGG,5IP5,5SY6,5SY9,5SYA,6AF5,6AF7,6AF9,6AFA,6AFB,6AFC,6AFD,6AFE,6AFF,6AFG,6AFH,6AFI,6AFJ,6AFL,6E5Z,6M8Z,7C62,7PA2,7PA3,8PPW,8PQ0</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E46" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4.0 to 5.203</t>
+          <t>4.82 to 7.26</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EPOR</t>
+          <t>APLNR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P19235</t>
+          <t>P35414</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1CN4,1EBA,1EBP,1EER,1ERN,2JIX,2MV6,4Y5V,4Y5X,4Y5Y,6E2Q,6I4X,6MOE,6MOF,6MOH,6MOI,6MOJ,6MOK,6MOL,8VUI,8VVM,8VVO</t>
+          <t>2LOT,2LOU,2LOV,2LOW,5VBL,6KNM,7SUS,7W0L,7W0M,7W0N,7W0O,7W0P,8XZF,8XZG,8XZH,8XZI,8XZJ</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.647</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.839 to 5.0</t>
+          <t>5.52 to 10.15</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SMOX</t>
+          <t>WNK1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Q9NWM0</t>
+          <t>Q9H4A3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7OXL,7OY0</t>
+          <t>4PWN,5TF9,5WDY,5WE8,6FBK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.412</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.699 to 7.4</t>
+          <t>4.61 to 8.31</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2368,277 +2368,277 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IL6ST</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P40189</t>
+          <t>P46937</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1BJ8,1BQU,1I1R,1P9M,1PVH,3L5H,3L5I,3L5J,7U7N,8D6A,8D74,8D7R,8D82,8D85,8DPS,8DPT,8DPU,8UPA</t>
+          <t>1JMQ,1K5R,1K9Q,1K9R,2LAW,2LAX,2LAY,2LTV,2LTW,3KYS,3MHR,4RE1,4REX,5OAQ,5YDX,5YDY,6G6X,6G8I,6G8J,6G8K,6G8L,6G8P,6G8Q,6GE3,6GE4,6GE5,6GE6,6GEC,6GEE,6GEG,6GEI,6GEK,6HIK,6HIL,6Q2X,7O07,8A8Q,8A8R,8C2F</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3.845 to 5.83</t>
+          <t>5.0 to 6.66</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>HTT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Q15465</t>
+          <t>P42858</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3HO5,3M1N,3MXW,6DMY,6E1H,6N7G,6N7H,6N7K,6OEV,6PJV,6RMG,6RVD,7E2I,7MHZ,7RHQ,7URF</t>
+          <t>2LD0,2LD2,3IO4,3IO6,3IOR,3IOT,3IOU,3IOV,3IOW,3LRH,4FE8,4FEB,4FEC,4FED,4RAV,6EZ8,6N8C,6RMH,6X9O,6YEJ,7DXJ,7DXK,8SAH,8VLX,8W15</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>0.308</v>
+        <v>0.647</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4.62 to 7.0</t>
+          <t>4.92 to 8.8</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>MTR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Q99986</t>
+          <t>Q99707</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2KTY,2KUL,2LAV,2RSV,3OP5,5UKF,5UVF,6AC9,6BP0,6BRU,6BTW,6BU6,6CFM,6CMM,6CNX,6CQH,6CSW,6DD4,6NPN,6VXU,6VZH,7M10,7TAN,8F8Y,8V42</t>
+          <t>2O2K,4CCZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.889 to 7.48</t>
+          <t>4.06 to 5.84</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100B</t>
+          <t>PLAUR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P04271</t>
+          <t>Q03405</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1MQ1,1UWO,2H61,2M49,2PRU,3CZT,3D0Y,3D10,3HCM,4XYN,5CSF,5CSI,5CSJ,5CSN,5D7F</t>
+          <t>1YWH,2FD6,2I9B,3BT1,3BT2,3U73,3U74,4K24,4QTI,7E17,7V63</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.921 to 6.0</t>
+          <t>3.95 to 5.755</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IL17A</t>
+          <t>CHKB</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Q16552</t>
+          <t>Q9Y259</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2VXS,4HR9,4HSA,4QHU,5HHV,5HHX,5HI3,5HI4,5HI5,5N7W,5N92,5NAN,5VB9,6WIO,6WIR,7AMA,7AMG,7UWM,7UWN,7WKX,7Z2M,7ZAN,8B7W,8CDG,8DY1,8DY5,8DYF,8DYG,8DYH,8DYI,8USR,8USS</t>
+          <t>2IG7,3FEG,3LQ3</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.84 to 9.0</t>
+          <t>4.2 to 5.47</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PDIA3</t>
+          <t>DNMT3A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P30101</t>
+          <t>Q9Y6K1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2ALB,2DMM,2H8L,3F8U,6ENY,7QNG,7QPD</t>
+          <t>2QRV,3A1A,3A1B,3LLR,3SVM,4QBQ,4QBR,4QBS,4U7P,4U7T,5YX2,6BRR,6F57,6PA7,6W89,6W8B,6W8D,6W8J,8BA5,8TDR,8TE1,8TE3,8TE4,8U5H</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.523 to 5.32</t>
+          <t>4.13 to 6.1</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GJA1</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P17302</t>
+          <t>P35520</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2LL2,7F92,7F93,7F94,7XQ9,7XQB,7XQD,7XQF,7XQG,7XQH,7XQI,7XQJ,7Z1T,7Z22,7Z23</t>
+          <t>1JBQ,1M54,4COO,4L0D,4L27,4L28,4L3V,4PCU,4UUU,5MMS,7QGT,8S5H,8S5I,8S5J,8S5K,8S5L,8S5M,8STW</t>
         </is>
       </c>
       <c r="D55" t="n">
+        <v>18</v>
+      </c>
+      <c r="E55" t="n">
         <v>15</v>
       </c>
-      <c r="E55" t="n">
-        <v>11</v>
-      </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.32 to 5.51</t>
+          <t>4.03 to 5.51</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -2648,77 +2648,77 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HSPA2</t>
+          <t>CD4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P54652</t>
+          <t>P01730</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3I33,4FSV,5FPD,5FPE,5FPM,5FPN</t>
+          <t>1CDH,1CDI,1CDJ,1CDU,1CDY,1G9M,1G9N,1GC1,1JL4,1Q68,1RZJ,1RZK,1WBR,1WIO,1WIP,1WIQ,2B4C,2JKR,2JKT,2KLU,2NXY,2NXZ,2NY0,2NY1,2NY2,2NY3,2NY4,2NY5,2NY6,2QAD,3B71,3CD4,3J70,3JCB,3JCC,3JWD,3JWO,3LQA,3O2D,3S4S,3S5L,3T0E,4H8W,4JM2,4P9H,4Q6I,4R2G,4R4H,4RQS,5A7X,5A8H,5CAY,5THR,5U1F,5VN3,6CM3,6EDU,6L1Y,6MEO,6MET,6OPN,6OPO,6OPP,6OPQ,6QH6,6QH7,6U0L,6U0N,6URI,6X5B,6X5C,7T0O,7T0R,7TXD,8D5C,8FYI,8FYJ,8W90</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>0.182</v>
+        <v>0.2</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.222 to 6.699</t>
+          <t>5.03 to 6.89</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EZR</t>
+          <t>NPR3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P15311</t>
+          <t>P17342</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1NI2,4RM8,4RM9,4RMA,7T1K,7T1L</t>
+          <t>1JDN,1JDP,1YK0,1YK1</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4.3 to 5.3</t>
+          <t>4.0 to 4.62</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -2728,77 +2728,77 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>THBS1</t>
+          <t>ADAM8</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P07996</t>
+          <t>P78325</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1LSL,1UX6,1Z78,1ZA4,2ERF,2ES3,2OUH,2OUJ,3R6B,5FOE,7YYK</t>
+          <t>4DD8</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>7.82 to 8.82</t>
+          <t>5.63 to 7.42</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SLC22A3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P16435</t>
+          <t>O75751</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1B1C,3FJO,3QE2,3QFC,3QFR,3QFS,3QFT,5EMN,5FA6</t>
+          <t>7ZH0,7ZH6,7ZHA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4.46 to 5.2</t>
+          <t>4.13 to 6.4</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -2808,77 +2808,77 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CBLB</t>
+          <t>TK1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Q13191</t>
+          <t>P04183</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2AK5,2BZ8,2DO6,2J6F,2JNH,2LDR,2OOA,2OOB,3PFV,3VGO,3ZNI,8GCY,8QNG,8QNH,8QNI,8QTG,8QTH,8QTJ,8QTK,8VW4,8VW5,9FQH,9FQI,9FQJ</t>
+          <t>1W4R,1XBT,2ORV,2WVJ</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4.01 to 5.185</t>
+          <t>4.07 to 5.52</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NDUFC1</t>
+          <t>CHRNA1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>O43677</t>
+          <t>P02708</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5XTC,5XTD,5XTH,5XTI</t>
+          <t>4ZJS,5HBT</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4.69 to 5.835</t>
+          <t>4.09 to 6.8</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -2888,77 +2888,77 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VKORC1</t>
+          <t>CASP9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Q9BQB6</t>
+          <t>P55211</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>6WV3,6WV4,6WV5,6WV6,6WV7,6WVH</t>
+          <t>1JXQ,1NW9,2AR9,3D9T,3V3K,3YGS,4RHW,5JUY,5WVC,5WVE</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5</v>
+        <v>0.077</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>4.1 to 8.35</t>
+          <t>4.03 to 8.22</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NDUFAB1</t>
+          <t>OGT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>O14561</t>
+          <t>O15294</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2DNW,5OOL,5OOM,5XTB,5XTC,5XTD,5XTH,5XTI,6ODD,7A5H,7A5J,7O9K,7O9M,7ODR,7ODS,7ODT,7OF0,7OF2,7OF3,7OF5,7OF7,7OI6,7OI7,7OI8,7OI9,7OIC,7OID,7OIE,7PD3,7PO4,7QH6,7QH7,8K2B,8PK0,8QSJ,8QU5</t>
+          <t>1W3B,3PE3,3PE4,3TAX,4AY5,4AY6,4CDR,4GYW,4GYY,4GZ3,4GZ5,4GZ6,4N39,4N3A,4N3B,4N3C,4XI9,4XIF,5BNW,5C1D,5HGV,5LVV,5LWV,5NPR,5NPS,5VIE,5VIF,6E37,6EOU,6IBO,6MA1,6MA2,6MA3,6MA4,6MA5,6Q4M,6TKA,7NTF,7YEA,7YEH,8CM9,8FE6,8FE7,8FUF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>4.69 to 5.835</t>
+          <t>4.0 to 5.75</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -2968,117 +2968,117 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SARM1</t>
+          <t>S100B</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Q6SZW1</t>
+          <t>P04271</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6O0Q,6O0R,6O0S,6O0T,6O0U,6O0V,6O1B,6QWV,6WPK,6ZFX,6ZG0,6ZG1,7ANW,7CM5,7CM6,7CM7,7DJT,7KNQ,7LD0,7NAG,7NAH,7NAI,7NAJ,7NAK,7NAL,7QG0,8D0C,8D0D,8D0E,8D0F,8D0G,8D0H,8D0I,8D0J,8GNI,8GNJ,8GQ5,8P2L</t>
+          <t>1MQ1,1UWO,2H61,2M49,2PRU,3CZT,3D0Y,3D10,3HCM,4XYN,5CSF,5CSI,5CSJ,5CSN,5D7F</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.696 to 6.82</t>
+          <t>4.38 to 6.0</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SERPINC1</t>
+          <t>CALM1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P01008</t>
+          <t>P0DP23</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1ANT,1ATH,1AZX,1BR8,1DZG,1DZH,1E03,1E04,1E05,1JVQ,1LK6,1NQ9,1OYH,1R1L,1SR5,1T1F,1TB6,2ANT,2B4X,2B5T,2BEH,2GD4,2HIJ,2ZNH,3EVJ,3KCG,4EB1</t>
+          <t>1CDL,1CLL,1CTR,1IWQ,1J7O,1J7P,1K90,1K93,1L7Z,1LVC,1NKF,1PK0,1S26,1SK6,1SW8,1UP5,1WRZ,1XFU,1XFV,1XFW,1XFX,1XFY,1XFZ,1Y6W,1YR5,1YRT,1YRU,1ZOT,1ZUZ,2BE6,2F3Y,2F3Z,2HF5,2I08,2JZI,2K0E,2K0F,2K0J,2K61,2KNE,2KUG,2KUH,2L53,2L7L,2LGF,2LL6,2LL7,2LQC,2LQP,2LV6,2M0J,2M0K,2M55,2MG5,2N27,2N6A,2N77,2N8J,2R28,2V01,2V02,2VAY,2W73,2WEL,2X0G,2Y4V,3BYA,3DVE,3DVJ,3DVK,3DVM,3EVV,3EWT,3EWV,3G43,3HR4,3J41,3O77,3O78,3OXQ,3SUI,3UCT,3UCW,3UCY,4BW7,4BW8,4BYF,4DCK,4DJC,4GOW,4JPZ,4JQ0,4L79,4LZX,4M1L,4OVN,4Q57,4Q5U,4UMO,4UPU,4V0C,5COC,5DBR,5DOW,5DSU,5GGM,5I0I,5J03,5J8H,5JQA,5JTH,5K7L,5K8Q,5OEO,5TP5,5TP6,5V02,5V03,5V7X,5WBX,5WC5,6B8L,6B8M,6B8N,6B8P,6B8Q,6BUT,6C1D,6C1G,6C1H,6CNM,6CNN,6CNO,6DAD,6DAE,6DAF,6DAH,6E2F,6E2G,6EEB,6FEG,6FEH,6GDK,6GDL,6HCS,6HR1,6JI8,6JII,6JIU,6JIY,6JRS,6JV2,6K4K,6K4L,6K4R,6M2W,6M7H,6MUD,6MUE,6N5W,6O5G,6OS4,6PAW,6PBX,6PBY,6TV7,6U39,6U3A,6U3B,6U3D,6UZZ,6V00,6V01,6X32,6X33,6X35,6X36,6XXX,6XY3,6XYR,6Y4P,6Y94,6Y95,6YA9,6YNS,6YNU,6ZBI,7AUG,7BF1,7BF2,7KL5,7L8V,7PSZ,7PU9,7SHQ,7SX3,7SX4,7T2Q,7TCI,7TCP,7TZC,7U9T,7UA3,7UA4,7VMB,7VUO,7VUR,7VUS,7VUT,7VUU,7VVD,7VVH,7WJI,7WR3,7WR4,7WR5,7WZS,7XN4,7XN5,7XN6,7ZRP,7ZRQ,8AHS,8B6Q,8BFG,8DGH,8DGK,8DUJ,8DVE,8EOW,8EP0,8EP1,8FNY,8FO6,8GM4,8GM5,8IJK,8J00,8J01,8J02,8J03,8J04,8J05,8J07,8JFK,8ODZ,8OE0,8OE4,8PB1,8SIK,8SIM,8SIN,8UXL,8UXM,8W4U,8X43,8XYA,8XYB</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3.523 to 6.24</t>
+          <t>4.22 to 7.74</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PPP3CA</t>
+          <t>GJA1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Q08209</t>
+          <t>P17302</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1AUI,1M63,1MF8,2JOG,2JZI,2P6B,2R28,2W73,3LL8,4F0Z,4Q5U,5C1V,5SVE,6NUC,6NUF,6NUU,6UUQ</t>
+          <t>2LL2,7F92,7F93,7F94,7XQ9,7XQB,7XQD,7XQF,7XQG,7XQH,7XQI,7XQJ,7Z1T,7Z22,7Z23</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.523 to 6.46</t>
+          <t>4.32 to 5.51</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3088,77 +3088,77 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IL1B</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P01584</t>
+          <t>P10599</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1HIB,1I1B,1IOB,1ITB,1L2H,1S0L,1T4Q,1TOO,1TP0,1TWE,1TWM,21BI,2I1B,2KH2,2NVH,31BI,3LTQ,3O4O,3POK,41BI,4DEP,4G6J,4G6M,4GAF,4GAI,4I1B,5BVP,5I1B,5MVZ,5R7W,5R85,5R86,5R87,5R88,5R89,5R8A,5R8B,5R8C,5R8D,5R8E,5R8F,5R8G,5R8H,5R8I,5R8J,5R8K,5R8L,5R8M,5R8N,5R8O,5R8P,5R8Q,6I1B,6Y8I,6Y8M,7CHY,7CHZ,7I1B,7Z4T,8C3U,8RYK,8RYS,8RZB,9ILB</t>
+          <t>1AIU,1AUC,1CQG,1CQH,1ERT,1ERU,1ERV,1ERW,1M7T,1MDI,1MDJ,1MDK,1TRS,1TRU,1TRV,1TRW,2HSH,2HXK,2IFQ,2IIY,3E3E,3KD0,3M9J,3M9K,3QFA,3QFB,3TRX,4LL1,4LL4,4OO4,4OO5,4POK,4POL,4POM,4PUF,4TRX,5DQY</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.364</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.42 to 5.7</t>
+          <t>5.0 to 7.05</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FGF23</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Q9GZV9</t>
+          <t>P16435</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2P39,5W21,6S22,7YSH,7YSU,7YSW</t>
+          <t>1B1C,3FJO,3QE2,3QFC,3QFR,3QFS,3QFT,5EMN,5FA6</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H68" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.91 to 6.85</t>
+          <t>4.46 to 5.2</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -3168,197 +3168,197 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NGFR</t>
+          <t>IL6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P08138</t>
+          <t>P05231</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2N80,2N83,2N97,3EWV,5ZGG,7CSQ,8X8T</t>
+          <t>1ALU,1IL6,1P9M,2IL6,4CNI,4J4L,4NI7,4NI9,4O9H,4ZS7,5FUC,7NXZ,8D82,8QY5,8QY6</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H69" t="n">
-        <v>0.125</v>
+        <v>0.091</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3.613 to 6.7</t>
+          <t>4.69 to 6.68</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>TUBB3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P01031</t>
+          <t>Q13509</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1CFA,1KJS,1XWE,3CU7,3HQA,3HQB,3KLS,3KM9,3PRX,3PVM,4A5W,4E0S,4P39,4UU9,5B4P,5B71,5HCC,5HCD,5HCE,5I5K,6H03,6H04,6RPT,6RQJ,7AD6,7AD7,7NYC,7NYD,7Y64,8B0F,8B0G,8B0H,8HK5,8HQC,8IA2,8JZZ</t>
+          <t>5IJ0,5IJ9,5JCO,6E7B,6S8L,6WSL,7LXB,7M18,7M20,7PJF,7SJ7,7SJ8,7SJ9,7SJA,7Z6S,8VRJ,8VRK,8VT7</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0.25</v>
+        <v>0.909</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>6.15 to 8.301</t>
+          <t>6.11 to 8.59</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IRS1</t>
+          <t>THBS1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P35568</t>
+          <t>P07996</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1IRS,1K3A,1QQG,2Z8C,5U1M,6BNT,7PPL,7PPM</t>
+          <t>1LSL,1UX6,1Z78,1ZA4,2ERF,2ES3,2OUH,2OUJ,3R6B,5FOE,7YYK</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F71" t="n">
+        <v>11</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>7.82 to 8.82</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
         <v>4</v>
-      </c>
-      <c r="G71" t="n">
-        <v>4</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>4.79 to 7.3</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RNMT</t>
+          <t>EZR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>O43148</t>
+          <t>P15311</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3BGV,3EPP,5E8J,5E9J,5E9W,8Q69,8Q8G</t>
+          <t>1NI2,4RM8,4RM9,4RMA,7T1K,7T1L</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H72" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.301 to 9.26</t>
+          <t>4.3 to 5.3</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MBD2</t>
+          <t>NFKB1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Q9UBB5</t>
+          <t>P19838</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2L2L,6C1A,6C1T,6C1U,6C1V,6C2F,6CNP,6CNQ,7AO8,7AO9,7AOA,7MWK,7MWM,7RAY</t>
+          <t>1MDI,1MDJ,1MDK,1NFI,1SVC,2DBF,2O61,3GUT,7LEQ,7LET,7LF4,7LFC,7RG4,7RG5,8TQD</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>4.42 to 7.96</t>
+          <t>4.13 to 7.12</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -3368,837 +3368,837 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IGF2R</t>
+          <t>PADI2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P11717</t>
+          <t>Q9Y2J8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1E6F,1GP0,1GP3,1GQB,1JPL,1JWG,1LF8,2CNJ,2L29,2L2A,2M68,2M6T,2V5N,2V5O,2V5P,5IEI,6N5X,6N5Y,6P8I,6V02,6Z30,6Z31,6Z32,8AFZ</t>
+          <t>4N20,4N22,4N24,4N25,4N26,4N28,4N2A,4N2B,4N2C,4N2D,4N2E,4N2F,4N2G,4N2H,4N2I,4N2K,4N2L,4N2M,4N2N</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>4.11 to 5.5</t>
+          <t>4.15 to 6.7</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SLC13A5</t>
+          <t>SOD1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Q86YT5</t>
+          <t>P00441</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7JSJ,7JSK</t>
+          <t>1AZV,1BA9,1DSW,1FUN,1HL4,1HL5,1KMG,1L3N,1MFM,1N18,1N19,1OEZ,1OZT,1OZU,1P1V,1PTZ,1PU0,1RK7,1SOS,1SPD,1UXL,1UXM,2AF2,2C9S,2C9U,2C9V,2GBT,2GBU,2GBV,2LU5,2MP3,2NAM,2NNX,2R27,2V0A,2VR6,2VR7,2VR8,2WKO,2WYT,2WYZ,2WZ0,2WZ5,2WZ6,2XJK,2XJL,2ZKW,2ZKX,2ZKY,3CQP,3CQQ,3ECU,3ECV,3ECW,3GQF,3GTV,3GZO,3GZP,3GZQ,3H2P,3H2Q,3HFF,3K91,3KH3,3KH4,3LTV,3QQD,3RE0,3T5W,4A7G,4A7Q,4A7S,4A7T,4A7U,4A7V,4B3E,4BCY,4BCZ,4BD4,4FF9,4MCM,4MCN,4NIN,4NIO,4NIP,4OH2,4XCR,5DLI,5IIW,5J07,5J0C,5J0F,5J0G,5K02,5O3Y,5O40,5U9M,5WMJ,5WOR,5YTO,5YTU,5YUL,6A9O,6B79,6DTK,6FFK,6FLH,6FOI,6FOL,6FON,6FP6,6SPA,6SPH,6SPI,6SPJ,6SPK,6Z3V,6Z4G,6Z4H,6Z4I,6Z4J,6Z4K,6Z4L,6Z4M,6Z4O,7CJV,7CJW,7FB6,7FB9,7NXX,7T8E,7T8F,7T8G,7T8H,7VZF,7XX3,8CCX,8GSQ,8K33,8K3A,8K3L,8Q6M,8YD3,9IYK</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>4.77 to 6.783</t>
+          <t>4.0 to 4.33</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YWHAZ</t>
+          <t>IL6ST</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P63104</t>
+          <t>P40189</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1IB1,1QJA,1QJB,2C1J,2C1N,2O02,2WH0,3CU8,3NKX,3RDH,4BG6,4FJ3,4HKC,4IHL,4N7G,4N7Y,4N84,4WRQ,4ZDR,5D2D,5D3F,5EWZ,5EXA,5J31,5JM4,5M35,5M36,5M37,5NAS,5ULO,5WXN,5XY9,6EF5,6EJL,6EWW,6F08,6F09,6FN9,6FNA,6FNB,6FNC,6Q0K,6RLZ,6U2H,6XAG,6YMO,6YO8,6YOS,6ZFD,6ZFG,7D8H,7D8P,7D9V,7MFD,7MFE,7MFF,7Q16,7ZIT,8A9G,8AH2</t>
+          <t>1BJ8,1BQU,1I1R,1P9M,1PVH,3L5H,3L5I,3L5J,7U7N,8D6A,8D74,8D7R,8D82,8D85,8DPS,8DPT,8DPU,8UPA</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H76" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>4.8 to 8.14</t>
+          <t>4.68 to 5.83</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CHKB</t>
+          <t>SARM1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Q9Y259</t>
+          <t>Q6SZW1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2IG7,3FEG,3LQ3</t>
+          <t>6O0Q,6O0R,6O0S,6O0T,6O0U,6O0V,6O1B,6QWV,6WPK,6ZFX,6ZG0,6ZG1,7ANW,7CM5,7CM6,7CM7,7DJT,7KNQ,7LD0,7NAG,7NAH,7NAI,7NAJ,7NAK,7NAL,7QG0,8D0C,8D0D,8D0E,8D0F,8D0G,8D0H,8D0I,8D0J,8GNI,8GNJ,8GQ5,8P2L</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>4.2 to 5.0</t>
+          <t>4.11 to 6.82</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DDOST</t>
+          <t>IRS1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P39656</t>
+          <t>P35568</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>6S7O,6S7T,8B6L,8PN9</t>
+          <t>1IRS,1K3A,1QQG,2Z8C,5U1M,6BNT,7PPL,7PPM</t>
         </is>
       </c>
       <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
         <v>4</v>
       </c>
-      <c r="E78" t="n">
-        <v>7</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6</v>
-      </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
-        <v>0.857</v>
+        <v>0.5</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>5.301 to 7.7</t>
+          <t>4.79 to 7.3</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HMOX1</t>
+          <t>FGF23</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P09601</t>
+          <t>Q9GZV9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1N3U,1N45,1NI6,1OYK,1OYL,1OZE,1OZL,1OZR,1OZW,1S13,1S8C,1T5P,1TWN,1TWR,1XJZ,1XK0,1XK1,1XK2,1XK3,3CZY,3HOK,3K4F,3TGM,4WD4,5BTQ,6EHA</t>
+          <t>2P39,5W21,6S22,7YSH,7YSU,7YSW</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>0.286</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>4.27 to 7.22</t>
+          <t>4.91 to 6.85</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DPAGT1</t>
+          <t>YWHAZ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Q9H3H5</t>
+          <t>P63104</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5LEV,5O5E,6BW5,6BW6,6FM9,6FWZ,6JQ3</t>
+          <t>1IB1,1QJA,1QJB,2C1J,2C1N,2O02,2WH0,3CU8,3NKX,3RDH,4BG6,4FJ3,4HKC,4IHL,4N7G,4N7Y,4N84,4WRQ,4ZDR,5D2D,5D3F,5EWZ,5EXA,5J31,5JM4,5M35,5M36,5M37,5NAS,5ULO,5WXN,5XY9,6EF5,6EJL,6EWW,6F08,6F09,6FN9,6FNA,6FNB,6FNC,6Q0K,6RLZ,6U2H,6XAG,6YMO,6YO8,6YOS,6ZFD,6ZFG,7D8H,7D8P,7D9V,7MFD,7MFE,7MFF,7Q16,7ZIT,8A9G,8AH2</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>4.301 to 5.35</t>
+          <t>4.8 to 8.14</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DDC</t>
+          <t>IL1B</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P20711</t>
+          <t>P01584</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3RBF,3RBL,3RCH,8OR9,8ORA</t>
+          <t>1HIB,1I1B,1IOB,1ITB,1L2H,1S0L,1T4Q,1TOO,1TP0,1TWE,1TWM,21BI,2I1B,2KH2,2NVH,31BI,3LTQ,3O4O,3POK,41BI,4DEP,4G6J,4G6M,4GAF,4GAI,4I1B,5BVP,5I1B,5MVZ,5R7W,5R85,5R86,5R87,5R88,5R89,5R8A,5R8B,5R8C,5R8D,5R8E,5R8F,5R8G,5R8H,5R8I,5R8J,5R8K,5R8L,5R8M,5R8N,5R8O,5R8P,5R8Q,6I1B,6Y8I,6Y8M,7CHY,7CHZ,7I1B,7Z4T,8C3U,8RYK,8RYS,8RZB,9ILB</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3.022 to 3.921</t>
+          <t>4.42 to 5.7</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WRN</t>
+          <t>TET2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Q14191</t>
+          <t>Q6N021</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2AXL,2DGZ,2E1E,2E1F,2FBT,2FBV,2FBX,2FBY,2FC0,3AAF,6TYV,6YHR,7GQS,7GQT,7GQU,7XUT,8PFL,8PFO,8PFP,8YLE</t>
+          <t>4NM6,5D9Y,5DEU,7NE3,7NE6</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>5.15 to 5.96</t>
+          <t>4.06 to 5.92</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>KAT5</t>
+          <t>SLC13A5</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Q92993</t>
+          <t>Q86YT5</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2EKO,2OU2,4QQG</t>
+          <t>7JSJ,7JSK</t>
         </is>
       </c>
       <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8</v>
+      </c>
+      <c r="F83" t="n">
         <v>3</v>
       </c>
-      <c r="E83" t="n">
-        <v>7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3.827 to 5.7</t>
+          <t>5.485 to 7.435</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FABP1</t>
+          <t>MBD2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P07148</t>
+          <t>Q9UBB5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2F73,2L67,2L68,2LKK,2PY1,3B2H,3B2I,3B2J,3B2K,3B2L,3STK,3STM,3STN,3VG2,3VG3,3VG4,3VG5,3VG6,3VG7,6DO6,6DO7,6DRG,6MP4,7DZE,7DZF,7DZG,7DZH,7DZI,7DZJ,7DZK,7DZL,7FXO,7FY8,7FYA,7G00,7G0W,7G1X</t>
+          <t>2L2L,6C1A,6C1T,6C1U,6C1V,6C2F,6CNP,6CNQ,7AO8,7AO9,7AOA,7MWK,7MWM,7RAY</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.4 to 6.375</t>
+          <t>4.42 to 7.96</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>XRCC5</t>
+          <t>ATAD2B</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P13010</t>
+          <t>Q9ULI0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1JEQ,1JEY,1Q2Z,1RW2,3RZ9,5Y3R,6ERF,6ERG,6ERH,6ZH6,6ZHA,6ZHE,7AXZ,7K0Y,7K17,7K1J,7K1K,7K1N,7LSY,7LT3,7NFC,7NFE,7SGL,7SU3,7SUD,7Z6O,7Z87,7Z88,7ZT6,7ZVT,7ZWA,7ZYG,8AG4,8AG5,8ASC,8BH3,8BHV,8BHY,8BOT,8EZA,8EZB</t>
+          <t>2DKW,3LXJ,6VEO,8SDX,8UHL,8UK5</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4.0 to 5.0</t>
+          <t>4.8 to 9.0</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ASPH</t>
+          <t>HSPA2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Q12797</t>
+          <t>P54652</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5APA,5JQY,5JTC,5JZ6,5JZ8,5JZA,5JZU,6Q9F,6Q9I,6QA5,6RK9,6YYU,6YYV,6YYW,6YYX,6YYY,6Z6Q,6Z6R,7BMI,7BMJ,7E6J,7YB8,7YB9,7YBA,7YBB,7YBC</t>
+          <t>3I33,4FSV,5FPD,5FPE,5FPM,5FPN</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H86" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>4.865 to 6.565</t>
+          <t>4.06 to 5.823</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOST</t>
+          <t>WRN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Q9BQB4</t>
+          <t>Q14191</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2K8P,3SOV,6L6R</t>
+          <t>2AXL,2DGZ,2E1E,2E1F,2FBT,2FBV,2FBX,2FBY,2FC0,3AAF,6TYV,6YHR,7GQS,7GQT,7GQU,7XUT,8PFL,8PFO,8PFP,8YLE</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>4.82 to 5.82</t>
+          <t>5.15 to 5.96</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SULT1A1</t>
+          <t>POLG</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P50225</t>
+          <t>P54098</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1LS6,1Z28,2D06,3QVU,3QVV,3U3J,3U3K,3U3M,3U3O,3U3R,4GRA</t>
+          <t>3IKM,4ZTU,4ZTZ,5C51,5C52,5C53,8D33,8D37,8D3R,8D42,8G5I,8G5J,8G5K,8G5L,8G5M,8G5N,8G5O,8G5P,8T7E,8UDK,8UDL,8V54,8V55,8V5D,8V5R</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4.07 to 6.1</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
         <v>5</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>5.78 to 8.29</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>METTL3</t>
+          <t>MARS1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Q86U44</t>
+          <t>P56192</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5IL0,5IL1,5IL2,5K7M,5K7U,5K7W,5L6D,5L6E,5TEY,5YZ9,6TTP,6TTT,6TTV,6TTW,6TTX,6TU1,6Y4G,7ACD,7NHG,7NHH,7NHI,7NHJ,7NHV,7NI7,7NI8,7NI9,7NIA,7NID,7O08,7O09,7O0L,7O0M,7O0P,7O0Q,7O0R,7O27,7O28,7O29,7O2E,7O2F,7O2H,7O2I,7O2X,7OED,7OEE,7OEF,7OEG,7OEH,7OEI,7OEJ,7OEK,7OEL,7OEM,7OQL,7OQO,7OQP,7RX6,7RX7,7RX8,8BN8,8PW8,8PW9,8PWA,8PWB</t>
+          <t>2DJV,4BL7,4BVX,4BVY,5GL7,5GOY,5Y6L</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>6.0 to 6.0</t>
+          <t>5.08 to 5.51</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HGF</t>
+          <t>KLK3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P14210</t>
+          <t>P07288</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1BHT,1GMN,1GMO,1GP9,1NK1,1SHY,1SI5,2HGF,2QJ2,3HMS,3HMT,3HN4,3MKP,3SP8,4D3C,4K3J,4O3T,4O3U,5COE,5CP9,5CS1,5CS3,5CS5,5CS9,5CSQ,5CT1,5CT2,5CT3,7MO7,7MO8,7MO9,7MOA,7MOB,7OCL,7OCM</t>
+          <t>2ZCH,2ZCK,2ZCL,3QUM</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6</v>
+        <v>0.429</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>5.71 to 7.195</t>
+          <t>4.35 to 6.89</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AARS1</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P49588</t>
+          <t>P01031</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4XEM,4XEO,5KNN,5T5S,5T76,5V59</t>
+          <t>1CFA,1KJS,1XWE,3CU7,3HQA,3HQB,3KLS,3KM9,3PRX,3PVM,4A5W,4E0S,4P39,4UU9,5B4P,5B71,5HCC,5HCD,5HCE,5I5K,6H03,6H04,6RPT,6RQJ,7AD6,7AD7,7NYC,7NYD,7Y64,8B0F,8B0G,8B0H,8HK5,8HQC,8IA2,8JZZ</t>
         </is>
       </c>
       <c r="D91" t="n">
+        <v>36</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
         <v>6</v>
       </c>
-      <c r="E91" t="n">
-        <v>5</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>5</v>
-      </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>4.0 to 4.0</t>
+          <t>6.15 to 6.68</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PKD2</t>
+          <t>HEXA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Q13563</t>
+          <t>P06865</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2KLD,2KLE,2KQ6,2Y4Q,3HRN,3HRO,5K47,5MKE,5MKF,5T4D,6A70,6D1W,6T9N,6T9O,6WB8,8HK7,8K3S</t>
+          <t>2GJX,2GK1</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>4.13 to 4.41</t>
+          <t>4.0 to 7.0</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ADAMTS13</t>
+          <t>HMOX1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Q76LX8</t>
+          <t>P09601</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3GHM,3GHN,3VN4,6QIG,7B01</t>
+          <t>1N3U,1N45,1NI6,1OYK,1OYL,1OZE,1OZL,1OZR,1OZW,1S13,1S8C,1T5P,1TWN,1TWR,1XJZ,1XK0,1XK1,1XK2,1XK3,3CZY,3HOK,3K4F,3TGM,4WD4,5BTQ,6EHA</t>
         </is>
       </c>
       <c r="D93" t="n">
+        <v>26</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
         <v>5</v>
       </c>
-      <c r="E93" t="n">
-        <v>4</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>4</v>
-      </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>4.0 to 5.0</t>
+          <t>4.27 to 7.22</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SMPD2</t>
+          <t>KAT5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>O60906</t>
+          <t>Q92993</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8J2F</t>
+          <t>2EKO,2OU2,4QQG</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>3.398 to 6.0</t>
+          <t>4.13 to 5.7</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -4208,37 +4208,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>FGF2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P04040</t>
+          <t>P09038</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1DGB,1DGF,1DGG,1DGH,1F4J,1QQW,7P8W,7VD9,8EL9,8HID,8PVD,8SGV,8WZH,8WZJ,8WZK,8WZM</t>
+          <t>1BAS,1BFB,1BFC,1BFF,1BFG,1BLA,1BLD,1CVS,1EV2,1FGA,1FQ9,1II4,1IIL,2BFH,2FGF,2M49,4FGF,4OEE,4OEF,4OEG,5X1O,6L4O,8HU7,8HUE,8OM6</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>4.0 to 5.96</t>
+          <t>4.52 to 8.35</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -4248,477 +4248,477 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GFPT1</t>
+          <t>SOST</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Q06210</t>
+          <t>Q9BQB4</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2V4M,2ZJ3,2ZJ4,6R4E,6R4F,6R4G,6R4H,6R4I,6R4J,6SVM,6SVO,6SVP,6SVQ,6ZMJ,6ZMK,7NDL</t>
+          <t>2K8P,3SOV,6L6R</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>3.921 to 6.82</t>
+          <t>4.82 to 5.82</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TET2</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Q6N021</t>
+          <t>Q99986</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4NM6,5D9Y,5DEU,7NE3,7NE6</t>
+          <t>2KTY,2KUL,2LAV,2RSV,3OP5,5UKF,5UVF,6AC9,6BP0,6BRU,6BTW,6BU6,6CFM,6CMM,6CNX,6CQH,6CSW,6DD4,6NPN,6VXU,6VZH,7M10,7TAN,8F8Y,8V42</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E97" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" t="n">
         <v>3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>4.14 to 5.92</t>
+          <t>5.322 to 7.48</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NT5C2</t>
+          <t>SULT1A1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P49902</t>
+          <t>P50225</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2J2C,2JC9,2JCM,2XCV,2XCW,2XCX,2XJB,2XJC,2XJD,2XJE,2XJF,4H4B,5CQZ,5CR7,5K7Y,5L4Z,5L50,5OPK,5OPL,5OPM,5OPN,5OPO,5OPP,6DD3,6DDB,6DDC,6DDH,6DDK,6DDL,6DDO,6DDQ,6DDX,6DDY,6DDZ,6DE0,6DE1,6DE2,6DE3,6FIR,6FIS,6FIU,6FIW,6FXH</t>
+          <t>1LS6,1Z28,2D06,3QVU,3QVV,3U3J,3U3K,3U3M,3U3O,3U3R,4GRA</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>3.02 to 3.337</t>
+          <t>5.78 to 8.29</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SARS1</t>
+          <t>ASPH</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P49591</t>
+          <t>Q12797</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3VBB,4L87,4RQE,4RQF,8P7B,8P7C,8P7D</t>
+          <t>5APA,5JQY,5JTC,5JZ6,5JZ8,5JZA,5JZU,6Q9F,6Q9I,6QA5,6RK9,6YYU,6YYV,6YYW,6YYX,6YYY,6Z6Q,6Z6R,7BMI,7BMJ,7E6J,7YB8,7YB9,7YBA,7YBB,7YBC</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>4.17 to 5.66</t>
+          <t>4.865 to 6.565</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>UBA1</t>
+          <t>TUBB</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>P22314</t>
+          <t>P07437</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4P22,6DC6,7PYV</t>
+          <t>3QNZ,3QO0,5N5N,6I2I,6QUS,6QUY,6QVE,6QVJ,7TRG,7TTN,7TTT,7TUB,7X0S,8BPO,8T42,8U3Z,9BP6</t>
         </is>
       </c>
       <c r="D100" t="n">
+        <v>17</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>4.53 to 5.54</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
         <v>3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>4.4 to 5.04</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ALKBH5</t>
+          <t>VKORC1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Q6P6C2</t>
+          <t>Q9BQB6</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4NJ4,4NRM,4NRO,4NRP,4NRQ,4O61,4O7X,4OCT,7V4G,7WKV,7WL0</t>
+          <t>6WV3,6WV4,6WV5,6WV6,6WV7,6WVH</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>4.0 to 6.08</t>
+          <t>5.71 to 8.35</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AGO2</t>
+          <t>HGF</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Q9UKV8</t>
+          <t>P14210</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3LUC,3LUD,3LUG,3LUH,3LUJ,3LUK,3QX8,3QX9,4F3T,4OLA,4OLB,4W5N,4W5O,4W5Q,4W5R,4W5T,4Z4C,4Z4D,4Z4E,4Z4F,4Z4G,4Z4H,4Z4I,5JS1,5JS2,5KI6,5T7B,5WEA,6CBD,6MDZ,6MFN,6MFR,6N4O,6NIT,6RA4,7C6B,7D7U,7KI3,8D6J,8D71,9BEZ,9BF0,9BF2</t>
+          <t>1BHT,1GMN,1GMO,1GP9,1NK1,1SHY,1SI5,2HGF,2QJ2,3HMS,3HMT,3HN4,3MKP,3SP8,4D3C,4K3J,4O3T,4O3U,5COE,5CP9,5CS1,5CS3,5CS5,5CS9,5CSQ,5CT1,5CT2,5CT3,7MO7,7MO8,7MO9,7MOA,7MOB,7OCL,7OCM</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E102" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" t="n">
         <v>3</v>
       </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>4.31 to 5.37</t>
+          <t>5.71 to 7.195</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CISD2</t>
+          <t>NGFR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Q8N5K1</t>
+          <t>P08138</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3FNV,4OO7,4OOA,7P0P</t>
+          <t>2N80,2N83,2N97,3EWV,5ZGG,7CSQ,8X8T</t>
         </is>
       </c>
       <c r="D103" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" t="n">
         <v>4</v>
       </c>
-      <c r="E103" t="n">
-        <v>3</v>
-      </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>4.53 to 5.64</t>
+          <t>5.51 to 6.7</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SPTLC1</t>
+          <t>TGFB2</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>O15269</t>
+          <t>P61812</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6M4N,6M4O,7CQI,7CQK,7K0I,7K0J,7K0K,7K0L,7K0M,7K0N,7K0O,7K0P,7K0Q,7YIU,7YIY,7YJ1,7YJ2</t>
+          <t>1TFG,2TGI,4KXZ,5TX4,5TY4,6I9J,6XM2,7RCO,8DC0,8FXS,8FXV</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F104" t="n">
         <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>7.19 to 8.29</t>
+          <t>6.01 to 9.47</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NOTCH2</t>
+          <t>AGO2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Q04721</t>
+          <t>Q9UKV8</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2OO4,5MWB</t>
+          <t>3LUC,3LUD,3LUG,3LUH,3LUJ,3LUK,3QX8,3QX9,4F3T,4OLA,4OLB,4W5N,4W5O,4W5Q,4W5R,4W5T,4Z4C,4Z4D,4Z4E,4Z4F,4Z4G,4Z4H,4Z4I,5JS1,5JS2,5KI6,5T7B,5WEA,6CBD,6MDZ,6MFN,6MFR,6N4O,6NIT,6RA4,7C6B,7D7U,7KI3,8D6J,8D71,9BEZ,9BF0,9BF2</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>3.4 to 9.0</t>
+          <t>4.31 to 6.35</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EEF1A2</t>
+          <t>USP14</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Q05639</t>
+          <t>P54578</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3C5J,8B6Z</t>
+          <t>2AYN,2AYO,5GJQ,6IIK,6IIL,6IIM,6IIN,6LVS,7W37,7W38,7W39,7W3A,7W3B,7W3C,7W3F,7W3G,7W3H,7W3I,7W3J,7W3K,7W3M</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>8.31 to 8.61</t>
+          <t>4.85 to 6.17</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CD81</t>
+          <t>SMPD2</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P60033</t>
+          <t>O60906</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1G8Q,1IV5,3X0E,5DFV,5DFW,5M2C,5M33,5M3D,5M3T,5M4R,5TCX,6EJG,6EJM,6EK2,6U9S,7JIC</t>
+          <t>8J2F</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
         <v>3</v>
       </c>
-      <c r="F107" t="n">
-        <v>3</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>7.18 to 7.68</t>
+          <t>5.55 to 6.52</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -4728,77 +4728,77 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NPR3</t>
+          <t>IGF2R</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P17342</t>
+          <t>P11717</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1JDN,1JDP,1YK0,1YK1</t>
+          <t>1E6F,1GP0,1GP3,1GQB,1JPL,1JWG,1LF8,2CNJ,2L29,2L2A,2M68,2M6T,2V5N,2V5O,2V5P,5IEI,6N5X,6N5Y,6P8I,6V02,6Z30,6Z31,6Z32,8AFZ</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>5.54 to 7.19</t>
+          <t>4.11 to 5.5</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IL1R1</t>
+          <t>TGFB1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P14778</t>
+          <t>P01137</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1G0Y,1IRA,1ITB,4DEP,4GAF</t>
+          <t>1KLA,1KLC,1KLD,3KFD,4KV5,5FFO,5VQP,6OM2,6P7J,7Y1R,7Y1T,8UDZ</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>5.0 to 6.14</t>
+          <t>7.25 to 7.89</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -4808,21 +4808,21 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SETMAR</t>
+          <t>HTRA2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Q53H47</t>
+          <t>O43464</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3BO5,3F2K,3K9J,3K9K,7S03</t>
+          <t>1LCY,2PZD,5FHT,5M3N,5M3O,5TNY,5TNZ,5TO0,5TO1,5WYN,7VGE,8AUK,8E2K</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>4.0 to 4.0</t>
+          <t>4.34 to 5.02</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -4848,77 +4848,77 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HTRA2</t>
+          <t>CISD2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>O43464</t>
+          <t>Q8N5K1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1LCY,2PZD,5FHT,5M3N,5M3O,5TNY,5TNZ,5TO0,5TO1,5WYN,7VGE,8AUK,8E2K</t>
+          <t>3FNV,4OO7,4OOA,7P0P</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>4.34 to 5.02</t>
+          <t>4.53 to 5.64</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>KCNB1</t>
+          <t>EEF1A2</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Q14721</t>
+          <t>Q05639</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>7RE5,7SPD</t>
+          <t>3C5J,8B6Z</t>
         </is>
       </c>
       <c r="D112" t="n">
         <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>6.0 to 6.23</t>
+          <t>8.31 to 8.61</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -4928,77 +4928,77 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PIK3R4</t>
+          <t>CSNK2B</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Q99570</t>
+          <t>P67870</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>7BL1,8SOR,9C82</t>
+          <t>1DS5,1JWH,1QF8,3EED,4DGL,4MD7,4MD8,4MD9,4NH1,6Q38</t>
         </is>
       </c>
       <c r="D113" t="n">
+        <v>10</v>
+      </c>
+      <c r="E113" t="n">
         <v>3</v>
       </c>
-      <c r="E113" t="n">
-        <v>2</v>
-      </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>4.8 to 5.0</t>
+          <t>5.16 to 6.0</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NEDD4</t>
+          <t>PDIA3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>P46934</t>
+          <t>P30101</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2KPZ,2KQ0,2M3O,2XBB,2XBF,3B7Y,4BBN,4BE8,4N7F,4N7H,5AHT,5C7J,5C91</t>
+          <t>2ALB,2DMM,2H8L,3F8U,6ENY,7QNG,7QPD</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>6.3 to 6.3</t>
+          <t>4.68 to 5.32</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -5008,37 +5008,37 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CD40LG</t>
+          <t>SARS1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>P29965</t>
+          <t>P49591</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1ALY,1I9R,3LKJ,3QD6,6BRB,6W9G,7SGM</t>
+          <t>3VBB,4L87,4RQE,4RQF,8P7B,8P7C,8P7D</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>5.0 to 5.63</t>
+          <t>4.17 to 5.66</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -5048,181 +5048,181 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SETD2</t>
+          <t>SMOX</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Q9BYW2</t>
+          <t>Q9NWM0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2A7O,2MDC,2MDI,2MDJ,4FMU,4H12,5JJY,5JLB,5JLE,5LSS,5LSX,5LSY,5LSZ,5LT6,5LT7,5LT8,5V21,5V22,6J9J,6VDB,7EA8,7EVR,7EVS,7LZB,7LZD,7LZF,7TY2,7TY3,8Q5P</t>
+          <t>7OXL,7OY0</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>4.699 to 6.1</t>
+          <t>4.59 to 7.4</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ANG</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P03950</t>
+          <t>P61244</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1A4Y,1ANG,1AWZ,1B1E,1B1I,1B1J,1GV7,1H0D,1H52,1H53,1HBY,1K58,1K59,1K5A,1K5B,1UN3,1UN4,1UN5,2ANG,4AHD,4AHE,4AHF,4AHG,4AHH,4AHI,4AHJ,4AHK,4AHL,4AHM,4AHN,4AOH,4B36,5EOP,5EPZ,5EQO,5M9A,5M9C,5M9G,5M9J,5M9M,5M9P,5M9Q,5M9R,5M9S,5M9T,5M9V,7NPM,7PNJ,7PNP,7PNR,8AF0,9BDL,9BDN,9BDP</t>
+          <t>1AN2,1HLO,1NKP,1NLW,1R05,5EYO,6G6J,6G6K,6G6L,8OTS,8OTT</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>3.444 to 3.444</t>
+          <t>4.06 to 4.22</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PLEK</t>
+          <t>SPTLC1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>P08567</t>
+          <t>O15269</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1PLS,1W4M,1X05,1XX0,1ZM0,2CSO,2I5C,2I5F</t>
+          <t>6M4N,6M4O,7CQI,7CQK,7K0I,7K0J,7K0K,7K0L,7K0M,7K0N,7K0O,7K0P,7K0Q,7YIU,7YIY,7YJ1,7YJ2</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>3.523 to 3.583</t>
+          <t>7.19 to 8.29</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FOXO1</t>
+          <t>CD81</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Q12778</t>
+          <t>P60033</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3CO6,3CO7,3COA,4LG0,5DUI,6LBI,6QVW,6QZR,6QZS,8A62,8A65</t>
+          <t>1G8Q,1IV5,3X0E,5DFV,5DFW,5M2C,5M33,5M3D,5M3T,5M4R,5TCX,6EJG,6EJM,6EK2,6U9S,7JIC</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>4.7 to 5.3</t>
+          <t>7.18 to 7.68</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>IL1R1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P00480</t>
+          <t>P14778</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1C9Y,1EP9,1FVO,1OTH</t>
+          <t>1G0Y,1IRA,1ITB,4DEP,4GAF</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120" t="n">
         <v>2</v>
@@ -5238,31 +5238,31 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>3.152 to 6.863</t>
+          <t>6.14 to 9.5</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NCS1</t>
+          <t>FABP1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>P62166</t>
+          <t>P07148</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1G8I,2LCP,4GUK,5O9S,6QI4,8AHY,8ALH,8ALM</t>
+          <t>2F73,2L67,2L68,2LKK,2PY1,3B2H,3B2I,3B2J,3B2K,3B2L,3STK,3STM,3STN,3VG2,3VG3,3VG4,3VG5,3VG6,3VG7,6DO6,6DO7,6DRG,6MP4,7DZE,7DZF,7DZG,7DZH,7DZI,7DZJ,7DZK,7DZL,7FXO,7FY8,7FYA,7G00,7G0W,7G1X</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
@@ -5278,31 +5278,31 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>4.94 to 5.9</t>
+          <t>3.4 to 5.7</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FOSB</t>
+          <t>NCS1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>P53539</t>
+          <t>P62166</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>5VPA,5VPB,5VPC,5VPD,5VPE,5VPF,6UCI,6UCL,6UCM,7UCC,7UCD</t>
+          <t>1G8I,2LCP,4GUK,5O9S,6QI4,8AHY,8ALH,8ALM</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E122" t="n">
         <v>2</v>
@@ -5318,31 +5318,31 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>4.24 to 4.54</t>
+          <t>4.94 to 5.9</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DDX17</t>
+          <t>TNFRSF1A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Q92841</t>
+          <t>P19438</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>6UV0,6UV1,6UV2,6UV3,6UV4</t>
+          <t>1EXT,1FT4,1ICH,1NCF,1TNR,7K7A,7KP7,7KP8,7KPB,8P6Q</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -5358,87 +5358,87 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>4.0 to 4.0</t>
+          <t>4.66 to 6.11</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CD44</t>
+          <t>AOC1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>P16070</t>
+          <t>P19801</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1POZ,1UUH,2I83,4PZ3,4PZ4,6TXS</t>
+          <t>3HI7,3HIG,3HII,3K5T,3MPH</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>3.4 to 3.611</t>
+          <t>6.54 to 7.89</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SMS</t>
+          <t>NEDD4</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P52788</t>
+          <t>P46934</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3C6K,3C6M</t>
+          <t>2KPZ,2KQ0,2M3O,2XBB,2XBF,3B7Y,4BBN,4BE8,4N7F,4N7H,5AHT,5C7J,5C91</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>7.3 to 7.7</t>
+          <t>6.3 to 6.3</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -5448,237 +5448,237 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GPX4</t>
+          <t>SHH</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P36969</t>
+          <t>Q15465</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2GS3,2OBI,5H5Q,5H5R,5H5S,6ELW,6HKQ,6HN3,7L8K,7L8L,7L8M,7L8Q,7L8R,7U4I,7U4J,7U4K,7U4L,7U4M,7U4N,8Q8N</t>
+          <t>3HO5,3M1N,3MXW,6DMY,6E1H,6N7G,6N7H,6N7K,6OEV,6PJV,6RMG,6RVD,7E2I,7MHZ,7RHQ,7URF</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>4.2 to 4.2</t>
+          <t>6.22 to 6.79</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MUC1</t>
+          <t>UBA1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>P15941</t>
+          <t>P22314</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1SM3,2ACM,2FO4,5T6P,5T78,6FZQ,6FZR,6KX1,6TGG,7Q4I,7V4W,7V64,7V7K,7V8Q,7VAC,7VAZ,8AXH,8P6I</t>
+          <t>4P22,6DC6,7PYV</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>4.12 to 4.12</t>
+          <t>6.35 to 7.18</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ADIPOR1</t>
+          <t>PRKAB2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Q96A54</t>
+          <t>O43741</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>5LXG,6KRZ,6KS0</t>
+          <t>2F15,2V8Q,2V92,2V9J,2Y8L,2Y8Q,2YA3,4CFH,4EAI,4EAJ,4RER,4REW,6B2E,7JHG,7JHH,7JIJ,7M74</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>5.75 to 5.75</t>
+          <t>5.72 to 6.01</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CCK</t>
+          <t>RNMT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>P06307</t>
+          <t>O43148</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>7EZH,7EZK,7EZM,7MBX,7MBY,7XOU,8IA7,9BKJ,9BKK</t>
+          <t>3BGV,3EPP,5E8J,5E9J,5E9W,8Q69,8Q8G</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>4.0 to 4.0</t>
+          <t>4.96 to 9.26</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PTEN</t>
+          <t>DPAGT1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>P60484</t>
+          <t>Q9H3H5</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1D5R,2KYL,4O1V,5BUG,5BZX,5BZZ,7JTX,7JUK,7JUL,7JVX,7PC7,8X3S</t>
+          <t>5LEV,5O5E,6BW5,6BW6,6FM9,6FWZ,6JQ3</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>4.88 to 4.88</t>
+          <t>4.94 to 5.35</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NGF</t>
+          <t>FOSB</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>P01138</t>
+          <t>P53539</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1SG1,1WWW,2IFG,4EDW,4EDX,4ZBN,5JZ7,6YW8</t>
+          <t>5VPA,5VPB,5VPC,5VPD,5VPE,5VPF,6UCI,6UCL,6UCM,7UCC,7UCD</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>6.0 to 6.0</t>
+          <t>4.24 to 4.54</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -5688,181 +5688,181 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GNE</t>
+          <t>KCNB1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Q9Y223</t>
+          <t>Q14721</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2YHW,2YHY,2YI1,3EO3,4ZHT</t>
+          <t>7RE5,7SPD</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>4.1 to 4.1</t>
+          <t>6.0 to 6.23</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>GC</t>
+          <t>ADAMTS13</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>P02774</t>
+          <t>Q76LX8</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1J78,1J7E,1KW2,1KXP,1LOT,1MA9</t>
+          <t>3GHM,3GHN,3VN4,6QIG,7B01</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>7.62 to 7.62</t>
+          <t>4.7 to 4.92</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CFH</t>
+          <t>SULT2A1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>P08603</t>
+          <t>Q06520</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1HAQ,1HCC,1HFH,1HFI,2BZM,2G7I,2IC4,2JGW,2JGX,2KMS,2QFG,2QFH,2RLP,2RLQ,2UWN,2V8E,2W80,2W81,2WII,2XQW,3GAU,3GAV,3GAW,3KXV,3KZJ,3OXU,3R62,3RJ3,3SW0,4AYD,4AYE,4AYI,4AYM,4B2R,4B2S,4J38,4K12,4ONT,4ZH1,5NBQ,5O32,5O35,5WTB,6ATG,6ZH1,7WKI,7ZJM</t>
+          <t>1EFH,1J99,1OV4,2QP3,2QP4,3F3Y,4IFB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>4.36 to 4.36</t>
+          <t>6.0 to 7.3</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HNRNPA1</t>
+          <t>CD44</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>P09651</t>
+          <t>P16070</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1HA1,1L3K,1PGZ,1PO6,1U1K,1U1L,1U1M,1U1N,1U1O,1U1P,1U1Q,1U1R,1UP1,2H4M,2LYV,2UP1,4YOE,5MPG,5MPL,5ZGD,5ZGL,6BXX,6DCL,6J60,7BX7,7ZJ2,8IK7,8IKB,8IKP,8IKS,8RZV,9F1S,9F4D,9F4E,9F4F,9F4G,9F4H,9F4J,9F4K,9F4L,9F4M,9F4N,9F4O,9F4P,9F4Q,9F4R,9F4S,9F4T,9F4U,9F4V,9F4W,9F4X,9F4Y,9F4Z,9F50,9F51,9F52,9F53,9F54,9F55,9F5C,9F5D,9F5E,9F5F,9F5G,9F5K,9F7F,9F7H,9GEA</t>
+          <t>1POZ,1UUH,2I83,4PZ3,4PZ4,6TXS</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>7.08 to 7.08</t>
+          <t>3.4 to 3.4</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TPI1</t>
+          <t>DLAT</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>P60174</t>
+          <t>P10515</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1HTI,1KLG,1KLU,1WYI,2IAM,2IAN,2JK2,2VOM,4BR1,4E41,4POC,4POD,4UNK,4UNL,4ZVJ,6C2G,6D43,6NLH,6UP1,6UP5,6UP8,6UPF,7RDE,7SX1,7T0Q,7UXB,7UXV</t>
+          <t>1FYC,1Y8N,1Y8O,1Y8P,2DNE,2PNR,2Q8I,3B8K,3CRK,3CRL,6CT0,6H55,8PIU</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -5878,31 +5878,31 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>4.82 to 4.82</t>
+          <t>6.24 to 6.24</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PANX1</t>
+          <t>PSMC4</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Q96RD7</t>
+          <t>P43686</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>6LTN,6LTO,6M02,6M66,6M67,6M68,6V6D,6WBF,6WBG,6WBI,6WBK,6WBL,6WBM,6WBN,7DWB,7F8J,7F8N,7F8O,7WSV,8GTS,8GTT,8GYO</t>
+          <t>2DVW,5GJQ,5GJR,5L4G,5LN3,5M32,5T0C,5T0G,5T0H,5T0I,5T0J,5VFP,5VFQ,5VFR,5VFS,5VFT,5VFU,5VGZ,5VHF,5VHH,5VHI,5VHJ,5VHM,5VHN,5VHO,5VHP,5VHQ,5VHR,5VHS,6MSB,6MSD,6MSE,6MSG,6MSH,6MSJ,6MSK,6WJD,6WJN,7QXN,7QXP,7QXU,7QXW,7QXX,7QY7,7QYA,7QYB,7W37,7W38,7W39,7W3A,7W3B,7W3C,7W3F,7W3G,7W3H,7W3I,7W3J,7W3K,7W3M,8CVT</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -5918,31 +5918,31 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>3.824 to 3.824</t>
+          <t>4.12 to 4.12</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RBCK1</t>
+          <t>IL4</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Q9BYM8</t>
+          <t>P05112</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2CRC,2LGY,4DBG,7V8E,7YUI,7YUJ,8BVL,8EAZ,8K6Q</t>
+          <t>1BBN,1BCN,1CYL,1HIJ,1HIK,1HZI,1IAR,1ITI,1ITL,1ITM,1RCB,2B8U,2B8X,2B8Y,2B8Z,2B90,2B91,2CYK,2D48,2INT,3BPL,3BPN,3QB7,4YDY,5FHX,6OEL,8A4F,8CGF,8CH7</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>6.29 to 6.29</t>
+          <t>5.75 to 5.75</t>
         </is>
       </c>
       <c r="J138" t="n">
@@ -5968,21 +5968,21 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CYCS</t>
+          <t>CRHR2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>P99999</t>
+          <t>Q13324</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1J3S,2N3Y,2N9I,2N9J,3NWV,3ZCF,3ZOO,5EXQ,5O10,5TY3,6DUJ,6ECJ,6XNK</t>
+          <t>3N93,3N95,3N96,6PB1,7TRY,7TS0</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -5998,31 +5998,31 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>6.02 to 6.02</t>
+          <t>4.77 to 4.77</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CD40</t>
+          <t>IL2RA</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>P25942</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1CZZ,1D00,1FLL,1LB6,3QD6,5DMI,5DMJ,5IHL,6FAX,6PE8,6PE9,7P3I,8YX1,8YX9</t>
+          <t>1Z92,2B5I,2ERJ,3IU3,3NFP,6VWU,6YIO,7F9W,7ZMZ</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>5.63 to 5.63</t>
+          <t>5.37 to 5.37</t>
         </is>
       </c>
       <c r="J140" t="n">
@@ -6088,61 +6088,61 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PPIP5K2</t>
+          <t>HNRNPA1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>O43314</t>
+          <t>P09651</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3T54,3T7A,3T99,3T9A,3T9B,3T9C,3T9D,3T9E,3T9F,4HN2,4NZM,4NZN,4NZO,4Q4C,4Q4D,5BYA,5BYB,5DGH,5DGI,6N5C,8G9E</t>
+          <t>1HA1,1L3K,1PGZ,1PO6,1U1K,1U1L,1U1M,1U1N,1U1O,1U1P,1U1Q,1U1R,1UP1,2H4M,2LYV,2UP1,4YOE,5MPG,5MPL,5ZGD,5ZGL,6BXX,6DCL,6J60,7BX7,7ZJ2,8IK7,8IKB,8IKP,8IKS,8RZV,9F1S,9F4D,9F4E,9F4F,9F4G,9F4H,9F4J,9F4K,9F4L,9F4M,9F4N,9F4O,9F4P,9F4Q,9F4R,9F4S,9F4T,9F4U,9F4V,9F4W,9F4X,9F4Y,9F4Z,9F50,9F51,9F52,9F53,9F54,9F55,9F5C,9F5D,9F5E,9F5F,9F5G,9F5K,9F7F,9F7H,9GEA</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>6.43 to 6.43</t>
+          <t>7.08 to 7.08</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IL2RA</t>
+          <t>GNE</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>Q9Y223</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1Z92,2B5I,2ERJ,3IU3,3NFP,6VWU,6YIO,7F9W,7ZMZ</t>
+          <t>2YHW,2YHY,2YI1,3EO3,4ZHT</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -6158,51 +6158,971 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>5.22 to 5.22</t>
+          <t>4.1 to 4.1</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HARS1</t>
+          <t>PTEN</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>P12081</t>
+          <t>P60484</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1X59,2LW7,4G84,4G85,4PHC,4X5O,5W6M,6O76</t>
+          <t>1D5R,2KYL,4O1V,5BUG,5BZX,5BZZ,7JTX,7JUK,7JUL,7JVX,7PC7,8X3S</t>
         </is>
       </c>
       <c r="D144" t="n">
+        <v>12</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>4.88 to 4.88</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GPX4</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>P36969</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2GS3,2OBI,5H5Q,5H5R,5H5S,6ELW,6HKQ,6HN3,7L8K,7L8L,7L8M,7L8Q,7L8R,7U4I,7U4J,7U4K,7U4L,7U4M,7U4N,8Q8N</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>4.2 to 4.2</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>FOXO1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Q12778</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3CO6,3CO7,3COA,4LG0,5DUI,6LBI,6QVW,6QZR,6QZS,8A62,8A65</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>11</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>7.48 to 7.48</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NR1D1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>P20393</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1A6Y,1GA5,1HLZ,3N00,8D8I</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>6.17 to 6.17</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>KIF5A</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Q12840</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4UXT,4UXY,4UY0</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>4.3 to 4.3</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NFE2L2</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Q16236</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2FLU,2LZ1,3ZGC,4IFL,5WFV,6T7V,7K28,7K29,7K2A,7K2B,7K2C,7K2D,7K2E,7K2K,7O7B,7X5E,7X5F,7X5G,8EJR,8EJS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>7.54 to 7.54</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>AGT</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>P01019</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1N9U,1N9V,2JP8,2WXW,2X0B,3CK0,3WOO,3WOR,4AA1,4APH,4FYS,5E2Q,5M3X,5M3Y,5XJM,6I3F,6I3I,6JOD,6OS0,7C6A</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>8.015 to 8.015</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GARS1</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>P41250</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2PME,2PMF,2Q5H,2Q5I,2ZT5,2ZT6,2ZT7,2ZT8,2ZXF,4KQE,4KR2,4KR3,4QEI,5E6M</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>14</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>7.4 to 7.4</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>PSMD10</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>O75832</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1QYM,1TR4,1UOH,4NIK,5VHF,5VHH,5VHI,5VHJ,5VHM,5VHN,5VHO,5VHP,5VHQ,5VHR,7VO6,7VXV,7VXW,7VY4,7VY7</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>19</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>6.255 to 6.255</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>PPIP5K2</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>O43314</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3T54,3T7A,3T99,3T9A,3T9B,3T9C,3T9D,3T9E,3T9F,4HN2,4NZM,4NZN,4NZO,4Q4C,4Q4D,5BYA,5BYB,5DGH,5DGI,6N5C,8G9E</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>21</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>6.43 to 6.43</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NOTCH2</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Q04721</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2OO4,5MWB</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>9.0 to 9.0</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NT5C2</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>P49902</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2J2C,2JC9,2JCM,2XCV,2XCW,2XCX,2XJB,2XJC,2XJD,2XJE,2XJF,4H4B,5CQZ,5CR7,5K7Y,5L4Z,5L50,5OPK,5OPL,5OPM,5OPN,5OPO,5OPP,6DD3,6DDB,6DDC,6DDH,6DDK,6DDL,6DDO,6DDQ,6DDX,6DDY,6DDZ,6DE0,6DE1,6DE2,6DE3,6FIR,6FIS,6FIU,6FIW,6FXH</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>43</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>3.02 to 3.02</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PIK3R4</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Q99570</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>7BL1,8SOR,9C82</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>4.8 to 4.8</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>P02774</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1J78,1J7E,1KW2,1KXP,1LOT,1MA9</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>7.62 to 7.62</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>P21439</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>6S7P,7NIU,7NIV,7NIW</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>5.12 to 5.12</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SLC26A3</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>P40879</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>7XUH,7XUJ,7XUL,8IET</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>6.6 to 6.6</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>VAT1</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Q99536</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6K9Y,6LHR,6LII</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>5.345 to 5.345</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>CRH</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>P06850</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1GO9,1GOE,3EHT,3EHU,6P9X</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>9.15 to 9.15</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ARSA</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>P15289</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1AUK,1E1Z,1E2S,1E33,1E3C,1N2K,1N2L,2AIJ,2AIK,2HI8</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>10</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>4.78 to 4.78</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PDCD1</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Q15116</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2M2D,3RRQ,4ZQK,5B8C,5GGR,5GGS,5IUS,5JXE,5WT9,6HIG,6J14,6J15,6JBT,6JJP,6K0Y,6R5G,6ROY,6ROZ,6UMT,6UMU,6UMV,6XKR,7BXA,7CGW,7CU5,7E9B,7VUX,7WSL,7WVM,8AS0,8EQ6,8GY5,8U31,8U32</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>34</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>8.48 to 8.48</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>MUC1</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>P15941</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1SM3,2ACM,2FO4,5T6P,5T78,6FZQ,6FZR,6KX1,6TGG,7Q4I,7V4W,7V64,7V7K,7V8Q,7VAC,7VAZ,8AXH,8P6I</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>18</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>4.12 to 4.12</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
         <v>8</v>
       </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>6.89 to 6.89</t>
-        </is>
-      </c>
-      <c r="J144" t="n">
-        <v>1</v>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>IL33</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>O95760</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2KLL,4KC3</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>4.375 to 4.375</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ADIPOR1</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Q96A54</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>5LXG,6KRZ,6KS0</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>5.75 to 5.75</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PIK3R1</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>P27986</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1A0N,1AZG,1H9O,1PBW,1PHT,1PIC,1PKS,1PKT,2IUG,2IUH,2IUI,2RD0,2V1Y,3HHM,3HIZ,3I5R,3I5S,4A55,4JPS,4L1B,4L23,4L2Y,4OVU,4OVV,4WAF,4YKN,4ZOP,5AUL,5FI4,5GJI,5ITD,5M6U,5SW8,5SWG,5SWO,5SWP,5SWR,5SWT,5SX8,5SX9,5SXA,5SXB,5SXC,5SXD,5SXE,5SXF,5SXI,5SXJ,5SXK,5UBT,5UK8,5UKJ,5UL1,5VLR,5XGH,5XGI,5XGJ,6NCT,6PYR,6PYU,7CIO,7LM2,7LQ1,7MYN,7MYO,7PG5,7PG6,7RNS,7TZ7,8AM0,8DCP,8DCX,8DD4,8DD8,8GUB,8H36,8H37,8ILR,8ILS,8ILV,8SBC,8SBJ,8TDU,8TGD,8TS7,8TS8,8TS9,8TSA,8TSB,8TSC,8TSD,8TU6,8V8H,8V8I,8V8J,8V8U,8V8V,8W9A,8W9B</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>99</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>7.82 to 7.82</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
